--- a/inputs_for_prioritization_model.xlsx
+++ b/inputs_for_prioritization_model.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CMADSEN\Downloads\LocalR\long_term_projects\ais_prioritization_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E45441C-091B-4F47-BB0D-FAEA5EE65301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C65A9D-9E27-41DB-986C-C83B0538B9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
     <sheet name="acceptable_values" sheetId="2" r:id="rId2"/>
+    <sheet name="species_predvars" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
   <si>
     <t>Region</t>
   </si>
@@ -82,6 +83,282 @@
   </si>
   <si>
     <t>Dragon Lake</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Annual_Mean_Temperature</t>
+  </si>
+  <si>
+    <t>Annual_Precipitation</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>calc</t>
+  </si>
+  <si>
+    <t>dist_to_highways</t>
+  </si>
+  <si>
+    <t>elev</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>population_density</t>
+  </si>
+  <si>
+    <t>TotalInspections</t>
+  </si>
+  <si>
+    <t>days_fished</t>
+  </si>
+  <si>
+    <t>Carbon_Dissolved_Organic</t>
+  </si>
+  <si>
+    <t>Chlorophyll</t>
+  </si>
+  <si>
+    <t>Conductivity</t>
+  </si>
+  <si>
+    <t>Nitrate(NO3)_plus_Nitrite(NO2)_Dissolved</t>
+  </si>
+  <si>
+    <t>Nitrate_(NO3)</t>
+  </si>
+  <si>
+    <t>Nitrate_(NO3)_Dissolved</t>
+  </si>
+  <si>
+    <t>Nitrogen_Total</t>
+  </si>
+  <si>
+    <t>Oxygen_Dissolved</t>
+  </si>
+  <si>
+    <t>Phosphorus_Total_Dissolved</t>
+  </si>
+  <si>
+    <t>Water_Temperature</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
+    <t>asian_clam_temperature_limits</t>
+  </si>
+  <si>
+    <t>temp_Autumn</t>
+  </si>
+  <si>
+    <t>temp_Spring</t>
+  </si>
+  <si>
+    <t>temp_Summer</t>
+  </si>
+  <si>
+    <t>temp_Winter</t>
+  </si>
+  <si>
+    <t>American shad</t>
+  </si>
+  <si>
+    <t>Amur goby</t>
+  </si>
+  <si>
+    <t>Asian clam</t>
+  </si>
+  <si>
+    <t>Bighead carp</t>
+  </si>
+  <si>
+    <t>Bitterling</t>
+  </si>
+  <si>
+    <t>Black bullhead</t>
+  </si>
+  <si>
+    <t>Black carp</t>
+  </si>
+  <si>
+    <t>Black crappie</t>
+  </si>
+  <si>
+    <t>Blotched snakehead</t>
+  </si>
+  <si>
+    <t>Bluegill sunfish</t>
+  </si>
+  <si>
+    <t>Brown bullhead</t>
+  </si>
+  <si>
+    <t>Channel catfish</t>
+  </si>
+  <si>
+    <t>Cherry shrimp</t>
+  </si>
+  <si>
+    <t>Chinese mystery snail</t>
+  </si>
+  <si>
+    <t>Common carp</t>
+  </si>
+  <si>
+    <t>Conrad's false mussel</t>
+  </si>
+  <si>
+    <t>Freshwater jellyfish</t>
+  </si>
+  <si>
+    <t>Grass carp</t>
+  </si>
+  <si>
+    <t>Green sunfish</t>
+  </si>
+  <si>
+    <t>Largemouth bass</t>
+  </si>
+  <si>
+    <t>Marbled crayfish</t>
+  </si>
+  <si>
+    <t>Monkey goby</t>
+  </si>
+  <si>
+    <t>Muskellunge</t>
+  </si>
+  <si>
+    <t>New zealand mudsnail</t>
+  </si>
+  <si>
+    <t>Northern pike</t>
+  </si>
+  <si>
+    <t>Northern snakehead</t>
+  </si>
+  <si>
+    <t>Oriental weather loach</t>
+  </si>
+  <si>
+    <t>Prussian carp</t>
+  </si>
+  <si>
+    <t>Pumpkinseed sunfish</t>
+  </si>
+  <si>
+    <t>Quagga mussel</t>
+  </si>
+  <si>
+    <t>Rainbow snakehead</t>
+  </si>
+  <si>
+    <t>Red bellied piranha</t>
+  </si>
+  <si>
+    <t>Red swamp crayfish</t>
+  </si>
+  <si>
+    <t>Ringed crayfish</t>
+  </si>
+  <si>
+    <t>Rock bass</t>
+  </si>
+  <si>
+    <t>Rosy red fathead minnow</t>
+  </si>
+  <si>
+    <t>Round goby</t>
+  </si>
+  <si>
+    <t>Rusty crayfish</t>
+  </si>
+  <si>
+    <t>Silver carp</t>
+  </si>
+  <si>
+    <t>Smallmouth bass</t>
+  </si>
+  <si>
+    <t>Spiny waterflea</t>
+  </si>
+  <si>
+    <t>Spottail shiner</t>
+  </si>
+  <si>
+    <t>Tench</t>
+  </si>
+  <si>
+    <t>Tubenose goby</t>
+  </si>
+  <si>
+    <t>Tui chub</t>
+  </si>
+  <si>
+    <t>Virile crayfish</t>
+  </si>
+  <si>
+    <t>Walleye</t>
+  </si>
+  <si>
+    <t>Warmouth</t>
+  </si>
+  <si>
+    <t>Western mosquitofish</t>
+  </si>
+  <si>
+    <t>Whirling disease</t>
+  </si>
+  <si>
+    <t>White cloud mountain minnow</t>
+  </si>
+  <si>
+    <t>Yellow bullhead</t>
+  </si>
+  <si>
+    <t>Yellow perch</t>
+  </si>
+  <si>
+    <t>Zebra mussel</t>
+  </si>
+  <si>
+    <t>Oriental weatherfish</t>
+  </si>
+  <si>
+    <t>Fathead minnow</t>
+  </si>
+  <si>
+    <t>Pumpkinseed</t>
+  </si>
+  <si>
+    <t>Carp</t>
+  </si>
+  <si>
+    <t>Common freshwater jellyfish</t>
+  </si>
+  <si>
+    <t>Bluegill</t>
+  </si>
+  <si>
+    <t>Asiatic clam</t>
+  </si>
+  <si>
+    <t>Golden clam</t>
+  </si>
+  <si>
+    <t>Good luck clam</t>
+  </si>
+  <si>
+    <t>Yellow pickerel</t>
+  </si>
+  <si>
+    <t>Mosquitofish</t>
   </si>
 </sst>
 </file>
@@ -464,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6445779-2465-4917-922C-4EA6D80CF35A}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -582,4 +859,5580 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9ABB0D-65E2-4F7D-8309-D592BA9BA411}">
+  <dimension ref="A1:AA67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2" t="b">
+        <v>1</v>
+      </c>
+      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" t="b">
+        <v>1</v>
+      </c>
+      <c r="X5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" t="b">
+        <v>1</v>
+      </c>
+      <c r="U6" t="b">
+        <v>1</v>
+      </c>
+      <c r="V6" t="b">
+        <v>1</v>
+      </c>
+      <c r="W6" t="b">
+        <v>1</v>
+      </c>
+      <c r="X6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V7" t="b">
+        <v>1</v>
+      </c>
+      <c r="W7" t="b">
+        <v>1</v>
+      </c>
+      <c r="X7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8" t="b">
+        <v>1</v>
+      </c>
+      <c r="U8" t="b">
+        <v>1</v>
+      </c>
+      <c r="V8" t="b">
+        <v>1</v>
+      </c>
+      <c r="W8" t="b">
+        <v>1</v>
+      </c>
+      <c r="X8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" t="b">
+        <v>1</v>
+      </c>
+      <c r="T9" t="b">
+        <v>1</v>
+      </c>
+      <c r="U9" t="b">
+        <v>1</v>
+      </c>
+      <c r="V9" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9" t="b">
+        <v>1</v>
+      </c>
+      <c r="X9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10" t="b">
+        <v>1</v>
+      </c>
+      <c r="U10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W10" t="b">
+        <v>1</v>
+      </c>
+      <c r="X10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11" t="b">
+        <v>1</v>
+      </c>
+      <c r="U11" t="b">
+        <v>1</v>
+      </c>
+      <c r="V11" t="b">
+        <v>1</v>
+      </c>
+      <c r="W11" t="b">
+        <v>1</v>
+      </c>
+      <c r="X11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" t="b">
+        <v>1</v>
+      </c>
+      <c r="S12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T12" t="b">
+        <v>1</v>
+      </c>
+      <c r="U12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V12" t="b">
+        <v>1</v>
+      </c>
+      <c r="W12" t="b">
+        <v>1</v>
+      </c>
+      <c r="X12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>1</v>
+      </c>
+      <c r="R13" t="b">
+        <v>1</v>
+      </c>
+      <c r="S13" t="b">
+        <v>1</v>
+      </c>
+      <c r="T13" t="b">
+        <v>1</v>
+      </c>
+      <c r="U13" t="b">
+        <v>1</v>
+      </c>
+      <c r="V13" t="b">
+        <v>1</v>
+      </c>
+      <c r="W13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S14" t="b">
+        <v>1</v>
+      </c>
+      <c r="T14" t="b">
+        <v>1</v>
+      </c>
+      <c r="U14" t="b">
+        <v>1</v>
+      </c>
+      <c r="V14" t="b">
+        <v>1</v>
+      </c>
+      <c r="W14" t="b">
+        <v>1</v>
+      </c>
+      <c r="X14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" t="b">
+        <v>1</v>
+      </c>
+      <c r="S15" t="b">
+        <v>1</v>
+      </c>
+      <c r="T15" t="b">
+        <v>1</v>
+      </c>
+      <c r="U15" t="b">
+        <v>1</v>
+      </c>
+      <c r="V15" t="b">
+        <v>1</v>
+      </c>
+      <c r="W15" t="b">
+        <v>1</v>
+      </c>
+      <c r="X15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" t="b">
+        <v>1</v>
+      </c>
+      <c r="S16" t="b">
+        <v>1</v>
+      </c>
+      <c r="T16" t="b">
+        <v>1</v>
+      </c>
+      <c r="U16" t="b">
+        <v>1</v>
+      </c>
+      <c r="V16" t="b">
+        <v>1</v>
+      </c>
+      <c r="W16" t="b">
+        <v>1</v>
+      </c>
+      <c r="X16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17" t="b">
+        <v>1</v>
+      </c>
+      <c r="S17" t="b">
+        <v>1</v>
+      </c>
+      <c r="T17" t="b">
+        <v>1</v>
+      </c>
+      <c r="U17" t="b">
+        <v>1</v>
+      </c>
+      <c r="V17" t="b">
+        <v>1</v>
+      </c>
+      <c r="W17" t="b">
+        <v>1</v>
+      </c>
+      <c r="X17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S18" t="b">
+        <v>1</v>
+      </c>
+      <c r="T18" t="b">
+        <v>1</v>
+      </c>
+      <c r="U18" t="b">
+        <v>1</v>
+      </c>
+      <c r="V18" t="b">
+        <v>1</v>
+      </c>
+      <c r="W18" t="b">
+        <v>1</v>
+      </c>
+      <c r="X18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>1</v>
+      </c>
+      <c r="R19" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19" t="b">
+        <v>1</v>
+      </c>
+      <c r="T19" t="b">
+        <v>1</v>
+      </c>
+      <c r="U19" t="b">
+        <v>1</v>
+      </c>
+      <c r="V19" t="b">
+        <v>1</v>
+      </c>
+      <c r="W19" t="b">
+        <v>1</v>
+      </c>
+      <c r="X19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20" t="b">
+        <v>1</v>
+      </c>
+      <c r="S20" t="b">
+        <v>1</v>
+      </c>
+      <c r="T20" t="b">
+        <v>1</v>
+      </c>
+      <c r="U20" t="b">
+        <v>1</v>
+      </c>
+      <c r="V20" t="b">
+        <v>1</v>
+      </c>
+      <c r="W20" t="b">
+        <v>1</v>
+      </c>
+      <c r="X20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21" t="b">
+        <v>1</v>
+      </c>
+      <c r="S21" t="b">
+        <v>1</v>
+      </c>
+      <c r="T21" t="b">
+        <v>1</v>
+      </c>
+      <c r="U21" t="b">
+        <v>1</v>
+      </c>
+      <c r="V21" t="b">
+        <v>1</v>
+      </c>
+      <c r="W21" t="b">
+        <v>1</v>
+      </c>
+      <c r="X21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22" t="b">
+        <v>1</v>
+      </c>
+      <c r="T22" t="b">
+        <v>1</v>
+      </c>
+      <c r="U22" t="b">
+        <v>1</v>
+      </c>
+      <c r="V22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W22" t="b">
+        <v>1</v>
+      </c>
+      <c r="X22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>1</v>
+      </c>
+      <c r="R23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S23" t="b">
+        <v>1</v>
+      </c>
+      <c r="T23" t="b">
+        <v>1</v>
+      </c>
+      <c r="U23" t="b">
+        <v>1</v>
+      </c>
+      <c r="V23" t="b">
+        <v>1</v>
+      </c>
+      <c r="W23" t="b">
+        <v>1</v>
+      </c>
+      <c r="X23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>1</v>
+      </c>
+      <c r="R24" t="b">
+        <v>1</v>
+      </c>
+      <c r="S24" t="b">
+        <v>1</v>
+      </c>
+      <c r="T24" t="b">
+        <v>1</v>
+      </c>
+      <c r="U24" t="b">
+        <v>1</v>
+      </c>
+      <c r="V24" t="b">
+        <v>1</v>
+      </c>
+      <c r="W24" t="b">
+        <v>1</v>
+      </c>
+      <c r="X24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>1</v>
+      </c>
+      <c r="R25" t="b">
+        <v>1</v>
+      </c>
+      <c r="S25" t="b">
+        <v>1</v>
+      </c>
+      <c r="T25" t="b">
+        <v>1</v>
+      </c>
+      <c r="U25" t="b">
+        <v>1</v>
+      </c>
+      <c r="V25" t="b">
+        <v>1</v>
+      </c>
+      <c r="W25" t="b">
+        <v>1</v>
+      </c>
+      <c r="X25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="b">
+        <v>1</v>
+      </c>
+      <c r="R26" t="b">
+        <v>1</v>
+      </c>
+      <c r="S26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T26" t="b">
+        <v>1</v>
+      </c>
+      <c r="U26" t="b">
+        <v>1</v>
+      </c>
+      <c r="V26" t="b">
+        <v>1</v>
+      </c>
+      <c r="W26" t="b">
+        <v>1</v>
+      </c>
+      <c r="X26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" t="b">
+        <v>1</v>
+      </c>
+      <c r="O27" t="b">
+        <v>1</v>
+      </c>
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="b">
+        <v>1</v>
+      </c>
+      <c r="R27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S27" t="b">
+        <v>1</v>
+      </c>
+      <c r="T27" t="b">
+        <v>1</v>
+      </c>
+      <c r="U27" t="b">
+        <v>1</v>
+      </c>
+      <c r="V27" t="b">
+        <v>1</v>
+      </c>
+      <c r="W27" t="b">
+        <v>1</v>
+      </c>
+      <c r="X27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O28" t="b">
+        <v>1</v>
+      </c>
+      <c r="P28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R28" t="b">
+        <v>1</v>
+      </c>
+      <c r="S28" t="b">
+        <v>1</v>
+      </c>
+      <c r="T28" t="b">
+        <v>1</v>
+      </c>
+      <c r="U28" t="b">
+        <v>1</v>
+      </c>
+      <c r="V28" t="b">
+        <v>1</v>
+      </c>
+      <c r="W28" t="b">
+        <v>1</v>
+      </c>
+      <c r="X28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="b">
+        <v>1</v>
+      </c>
+      <c r="R29" t="b">
+        <v>1</v>
+      </c>
+      <c r="S29" t="b">
+        <v>1</v>
+      </c>
+      <c r="T29" t="b">
+        <v>1</v>
+      </c>
+      <c r="U29" t="b">
+        <v>1</v>
+      </c>
+      <c r="V29" t="b">
+        <v>1</v>
+      </c>
+      <c r="W29" t="b">
+        <v>1</v>
+      </c>
+      <c r="X29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" t="b">
+        <v>1</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="b">
+        <v>1</v>
+      </c>
+      <c r="R30" t="b">
+        <v>1</v>
+      </c>
+      <c r="S30" t="b">
+        <v>1</v>
+      </c>
+      <c r="T30" t="b">
+        <v>1</v>
+      </c>
+      <c r="U30" t="b">
+        <v>1</v>
+      </c>
+      <c r="V30" t="b">
+        <v>1</v>
+      </c>
+      <c r="W30" t="b">
+        <v>1</v>
+      </c>
+      <c r="X30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" t="b">
+        <v>1</v>
+      </c>
+      <c r="O31" t="b">
+        <v>1</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="b">
+        <v>1</v>
+      </c>
+      <c r="R31" t="b">
+        <v>1</v>
+      </c>
+      <c r="S31" t="b">
+        <v>1</v>
+      </c>
+      <c r="T31" t="b">
+        <v>1</v>
+      </c>
+      <c r="U31" t="b">
+        <v>1</v>
+      </c>
+      <c r="V31" t="b">
+        <v>1</v>
+      </c>
+      <c r="W31" t="b">
+        <v>1</v>
+      </c>
+      <c r="X31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="b">
+        <v>1</v>
+      </c>
+      <c r="R32" t="b">
+        <v>1</v>
+      </c>
+      <c r="S32" t="b">
+        <v>1</v>
+      </c>
+      <c r="T32" t="b">
+        <v>1</v>
+      </c>
+      <c r="U32" t="b">
+        <v>1</v>
+      </c>
+      <c r="V32" t="b">
+        <v>1</v>
+      </c>
+      <c r="W32" t="b">
+        <v>1</v>
+      </c>
+      <c r="X32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="b">
+        <v>1</v>
+      </c>
+      <c r="R33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S33" t="b">
+        <v>1</v>
+      </c>
+      <c r="T33" t="b">
+        <v>1</v>
+      </c>
+      <c r="U33" t="b">
+        <v>1</v>
+      </c>
+      <c r="V33" t="b">
+        <v>1</v>
+      </c>
+      <c r="W33" t="b">
+        <v>1</v>
+      </c>
+      <c r="X33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34" t="b">
+        <v>1</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="b">
+        <v>1</v>
+      </c>
+      <c r="R34" t="b">
+        <v>1</v>
+      </c>
+      <c r="S34" t="b">
+        <v>1</v>
+      </c>
+      <c r="T34" t="b">
+        <v>1</v>
+      </c>
+      <c r="U34" t="b">
+        <v>1</v>
+      </c>
+      <c r="V34" t="b">
+        <v>1</v>
+      </c>
+      <c r="W34" t="b">
+        <v>1</v>
+      </c>
+      <c r="X34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35" t="b">
+        <v>1</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="b">
+        <v>1</v>
+      </c>
+      <c r="R35" t="b">
+        <v>1</v>
+      </c>
+      <c r="S35" t="b">
+        <v>1</v>
+      </c>
+      <c r="T35" t="b">
+        <v>1</v>
+      </c>
+      <c r="U35" t="b">
+        <v>1</v>
+      </c>
+      <c r="V35" t="b">
+        <v>1</v>
+      </c>
+      <c r="W35" t="b">
+        <v>1</v>
+      </c>
+      <c r="X35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" t="b">
+        <v>1</v>
+      </c>
+      <c r="N36" t="b">
+        <v>1</v>
+      </c>
+      <c r="O36" t="b">
+        <v>1</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="b">
+        <v>1</v>
+      </c>
+      <c r="R36" t="b">
+        <v>1</v>
+      </c>
+      <c r="S36" t="b">
+        <v>1</v>
+      </c>
+      <c r="T36" t="b">
+        <v>1</v>
+      </c>
+      <c r="U36" t="b">
+        <v>1</v>
+      </c>
+      <c r="V36" t="b">
+        <v>1</v>
+      </c>
+      <c r="W36" t="b">
+        <v>1</v>
+      </c>
+      <c r="X36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" t="b">
+        <v>1</v>
+      </c>
+      <c r="N37" t="b">
+        <v>1</v>
+      </c>
+      <c r="O37" t="b">
+        <v>1</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="b">
+        <v>1</v>
+      </c>
+      <c r="R37" t="b">
+        <v>1</v>
+      </c>
+      <c r="S37" t="b">
+        <v>1</v>
+      </c>
+      <c r="T37" t="b">
+        <v>1</v>
+      </c>
+      <c r="U37" t="b">
+        <v>1</v>
+      </c>
+      <c r="V37" t="b">
+        <v>1</v>
+      </c>
+      <c r="W37" t="b">
+        <v>1</v>
+      </c>
+      <c r="X37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" t="b">
+        <v>1</v>
+      </c>
+      <c r="N38" t="b">
+        <v>1</v>
+      </c>
+      <c r="O38" t="b">
+        <v>1</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="b">
+        <v>1</v>
+      </c>
+      <c r="R38" t="b">
+        <v>1</v>
+      </c>
+      <c r="S38" t="b">
+        <v>1</v>
+      </c>
+      <c r="T38" t="b">
+        <v>1</v>
+      </c>
+      <c r="U38" t="b">
+        <v>1</v>
+      </c>
+      <c r="V38" t="b">
+        <v>1</v>
+      </c>
+      <c r="W38" t="b">
+        <v>1</v>
+      </c>
+      <c r="X38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N39" t="b">
+        <v>1</v>
+      </c>
+      <c r="O39" t="b">
+        <v>1</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="b">
+        <v>1</v>
+      </c>
+      <c r="R39" t="b">
+        <v>1</v>
+      </c>
+      <c r="S39" t="b">
+        <v>1</v>
+      </c>
+      <c r="T39" t="b">
+        <v>1</v>
+      </c>
+      <c r="U39" t="b">
+        <v>1</v>
+      </c>
+      <c r="V39" t="b">
+        <v>1</v>
+      </c>
+      <c r="W39" t="b">
+        <v>1</v>
+      </c>
+      <c r="X39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40" t="b">
+        <v>1</v>
+      </c>
+      <c r="O40" t="b">
+        <v>1</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="b">
+        <v>1</v>
+      </c>
+      <c r="R40" t="b">
+        <v>1</v>
+      </c>
+      <c r="S40" t="b">
+        <v>1</v>
+      </c>
+      <c r="T40" t="b">
+        <v>1</v>
+      </c>
+      <c r="U40" t="b">
+        <v>1</v>
+      </c>
+      <c r="V40" t="b">
+        <v>1</v>
+      </c>
+      <c r="W40" t="b">
+        <v>1</v>
+      </c>
+      <c r="X40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" t="b">
+        <v>1</v>
+      </c>
+      <c r="N41" t="b">
+        <v>1</v>
+      </c>
+      <c r="O41" t="b">
+        <v>1</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="b">
+        <v>1</v>
+      </c>
+      <c r="R41" t="b">
+        <v>1</v>
+      </c>
+      <c r="S41" t="b">
+        <v>1</v>
+      </c>
+      <c r="T41" t="b">
+        <v>1</v>
+      </c>
+      <c r="U41" t="b">
+        <v>1</v>
+      </c>
+      <c r="V41" t="b">
+        <v>1</v>
+      </c>
+      <c r="W41" t="b">
+        <v>1</v>
+      </c>
+      <c r="X41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" t="b">
+        <v>1</v>
+      </c>
+      <c r="N42" t="b">
+        <v>1</v>
+      </c>
+      <c r="O42" t="b">
+        <v>1</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="b">
+        <v>1</v>
+      </c>
+      <c r="R42" t="b">
+        <v>1</v>
+      </c>
+      <c r="S42" t="b">
+        <v>1</v>
+      </c>
+      <c r="T42" t="b">
+        <v>1</v>
+      </c>
+      <c r="U42" t="b">
+        <v>1</v>
+      </c>
+      <c r="V42" t="b">
+        <v>1</v>
+      </c>
+      <c r="W42" t="b">
+        <v>1</v>
+      </c>
+      <c r="X42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" t="b">
+        <v>1</v>
+      </c>
+      <c r="N43" t="b">
+        <v>1</v>
+      </c>
+      <c r="O43" t="b">
+        <v>1</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="b">
+        <v>1</v>
+      </c>
+      <c r="R43" t="b">
+        <v>1</v>
+      </c>
+      <c r="S43" t="b">
+        <v>1</v>
+      </c>
+      <c r="T43" t="b">
+        <v>1</v>
+      </c>
+      <c r="U43" t="b">
+        <v>1</v>
+      </c>
+      <c r="V43" t="b">
+        <v>1</v>
+      </c>
+      <c r="W43" t="b">
+        <v>1</v>
+      </c>
+      <c r="X43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" t="b">
+        <v>1</v>
+      </c>
+      <c r="N44" t="b">
+        <v>1</v>
+      </c>
+      <c r="O44" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="b">
+        <v>1</v>
+      </c>
+      <c r="R44" t="b">
+        <v>1</v>
+      </c>
+      <c r="S44" t="b">
+        <v>1</v>
+      </c>
+      <c r="T44" t="b">
+        <v>1</v>
+      </c>
+      <c r="U44" t="b">
+        <v>1</v>
+      </c>
+      <c r="V44" t="b">
+        <v>1</v>
+      </c>
+      <c r="W44" t="b">
+        <v>1</v>
+      </c>
+      <c r="X44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" t="b">
+        <v>1</v>
+      </c>
+      <c r="N45" t="b">
+        <v>1</v>
+      </c>
+      <c r="O45" t="b">
+        <v>1</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="b">
+        <v>1</v>
+      </c>
+      <c r="R45" t="b">
+        <v>1</v>
+      </c>
+      <c r="S45" t="b">
+        <v>1</v>
+      </c>
+      <c r="T45" t="b">
+        <v>1</v>
+      </c>
+      <c r="U45" t="b">
+        <v>1</v>
+      </c>
+      <c r="V45" t="b">
+        <v>1</v>
+      </c>
+      <c r="W45" t="b">
+        <v>1</v>
+      </c>
+      <c r="X45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="b">
+        <v>1</v>
+      </c>
+      <c r="M46" t="b">
+        <v>1</v>
+      </c>
+      <c r="N46" t="b">
+        <v>1</v>
+      </c>
+      <c r="O46" t="b">
+        <v>1</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="b">
+        <v>1</v>
+      </c>
+      <c r="R46" t="b">
+        <v>1</v>
+      </c>
+      <c r="S46" t="b">
+        <v>1</v>
+      </c>
+      <c r="T46" t="b">
+        <v>1</v>
+      </c>
+      <c r="U46" t="b">
+        <v>1</v>
+      </c>
+      <c r="V46" t="b">
+        <v>1</v>
+      </c>
+      <c r="W46" t="b">
+        <v>1</v>
+      </c>
+      <c r="X46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" t="b">
+        <v>1</v>
+      </c>
+      <c r="M47" t="b">
+        <v>1</v>
+      </c>
+      <c r="N47" t="b">
+        <v>1</v>
+      </c>
+      <c r="O47" t="b">
+        <v>1</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="b">
+        <v>1</v>
+      </c>
+      <c r="R47" t="b">
+        <v>1</v>
+      </c>
+      <c r="S47" t="b">
+        <v>1</v>
+      </c>
+      <c r="T47" t="b">
+        <v>1</v>
+      </c>
+      <c r="U47" t="b">
+        <v>1</v>
+      </c>
+      <c r="V47" t="b">
+        <v>1</v>
+      </c>
+      <c r="W47" t="b">
+        <v>1</v>
+      </c>
+      <c r="X47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="b">
+        <v>1</v>
+      </c>
+      <c r="M48" t="b">
+        <v>1</v>
+      </c>
+      <c r="N48" t="b">
+        <v>1</v>
+      </c>
+      <c r="O48" t="b">
+        <v>1</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="b">
+        <v>1</v>
+      </c>
+      <c r="R48" t="b">
+        <v>1</v>
+      </c>
+      <c r="S48" t="b">
+        <v>1</v>
+      </c>
+      <c r="T48" t="b">
+        <v>1</v>
+      </c>
+      <c r="U48" t="b">
+        <v>1</v>
+      </c>
+      <c r="V48" t="b">
+        <v>1</v>
+      </c>
+      <c r="W48" t="b">
+        <v>1</v>
+      </c>
+      <c r="X48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49" t="b">
+        <v>1</v>
+      </c>
+      <c r="N49" t="b">
+        <v>1</v>
+      </c>
+      <c r="O49" t="b">
+        <v>1</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="b">
+        <v>1</v>
+      </c>
+      <c r="R49" t="b">
+        <v>1</v>
+      </c>
+      <c r="S49" t="b">
+        <v>1</v>
+      </c>
+      <c r="T49" t="b">
+        <v>1</v>
+      </c>
+      <c r="U49" t="b">
+        <v>1</v>
+      </c>
+      <c r="V49" t="b">
+        <v>1</v>
+      </c>
+      <c r="W49" t="b">
+        <v>1</v>
+      </c>
+      <c r="X49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" t="b">
+        <v>1</v>
+      </c>
+      <c r="N50" t="b">
+        <v>1</v>
+      </c>
+      <c r="O50" t="b">
+        <v>1</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="b">
+        <v>1</v>
+      </c>
+      <c r="R50" t="b">
+        <v>1</v>
+      </c>
+      <c r="S50" t="b">
+        <v>1</v>
+      </c>
+      <c r="T50" t="b">
+        <v>1</v>
+      </c>
+      <c r="U50" t="b">
+        <v>1</v>
+      </c>
+      <c r="V50" t="b">
+        <v>1</v>
+      </c>
+      <c r="W50" t="b">
+        <v>1</v>
+      </c>
+      <c r="X50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="b">
+        <v>1</v>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51" t="b">
+        <v>1</v>
+      </c>
+      <c r="N51" t="b">
+        <v>1</v>
+      </c>
+      <c r="O51" t="b">
+        <v>1</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="b">
+        <v>1</v>
+      </c>
+      <c r="R51" t="b">
+        <v>1</v>
+      </c>
+      <c r="S51" t="b">
+        <v>1</v>
+      </c>
+      <c r="T51" t="b">
+        <v>1</v>
+      </c>
+      <c r="U51" t="b">
+        <v>1</v>
+      </c>
+      <c r="V51" t="b">
+        <v>1</v>
+      </c>
+      <c r="W51" t="b">
+        <v>1</v>
+      </c>
+      <c r="X51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="b">
+        <v>1</v>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M52" t="b">
+        <v>1</v>
+      </c>
+      <c r="N52" t="b">
+        <v>1</v>
+      </c>
+      <c r="O52" t="b">
+        <v>1</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="b">
+        <v>1</v>
+      </c>
+      <c r="R52" t="b">
+        <v>1</v>
+      </c>
+      <c r="S52" t="b">
+        <v>1</v>
+      </c>
+      <c r="T52" t="b">
+        <v>1</v>
+      </c>
+      <c r="U52" t="b">
+        <v>1</v>
+      </c>
+      <c r="V52" t="b">
+        <v>1</v>
+      </c>
+      <c r="W52" t="b">
+        <v>1</v>
+      </c>
+      <c r="X52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53" t="b">
+        <v>1</v>
+      </c>
+      <c r="N53" t="b">
+        <v>1</v>
+      </c>
+      <c r="O53" t="b">
+        <v>1</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="b">
+        <v>1</v>
+      </c>
+      <c r="R53" t="b">
+        <v>1</v>
+      </c>
+      <c r="S53" t="b">
+        <v>1</v>
+      </c>
+      <c r="T53" t="b">
+        <v>1</v>
+      </c>
+      <c r="U53" t="b">
+        <v>1</v>
+      </c>
+      <c r="V53" t="b">
+        <v>1</v>
+      </c>
+      <c r="W53" t="b">
+        <v>1</v>
+      </c>
+      <c r="X53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="b">
+        <v>1</v>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="b">
+        <v>1</v>
+      </c>
+      <c r="M54" t="b">
+        <v>1</v>
+      </c>
+      <c r="N54" t="b">
+        <v>1</v>
+      </c>
+      <c r="O54" t="b">
+        <v>1</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="b">
+        <v>1</v>
+      </c>
+      <c r="R54" t="b">
+        <v>1</v>
+      </c>
+      <c r="S54" t="b">
+        <v>1</v>
+      </c>
+      <c r="T54" t="b">
+        <v>1</v>
+      </c>
+      <c r="U54" t="b">
+        <v>1</v>
+      </c>
+      <c r="V54" t="b">
+        <v>1</v>
+      </c>
+      <c r="W54" t="b">
+        <v>1</v>
+      </c>
+      <c r="X54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="b">
+        <v>1</v>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="b">
+        <v>1</v>
+      </c>
+      <c r="M55" t="b">
+        <v>1</v>
+      </c>
+      <c r="N55" t="b">
+        <v>1</v>
+      </c>
+      <c r="O55" t="b">
+        <v>1</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="b">
+        <v>1</v>
+      </c>
+      <c r="R55" t="b">
+        <v>1</v>
+      </c>
+      <c r="S55" t="b">
+        <v>1</v>
+      </c>
+      <c r="T55" t="b">
+        <v>1</v>
+      </c>
+      <c r="U55" t="b">
+        <v>1</v>
+      </c>
+      <c r="V55" t="b">
+        <v>1</v>
+      </c>
+      <c r="W55" t="b">
+        <v>1</v>
+      </c>
+      <c r="X55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="b">
+        <v>1</v>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="b">
+        <v>1</v>
+      </c>
+      <c r="M56" t="b">
+        <v>1</v>
+      </c>
+      <c r="N56" t="b">
+        <v>1</v>
+      </c>
+      <c r="O56" t="b">
+        <v>1</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="b">
+        <v>1</v>
+      </c>
+      <c r="R56" t="b">
+        <v>1</v>
+      </c>
+      <c r="S56" t="b">
+        <v>1</v>
+      </c>
+      <c r="T56" t="b">
+        <v>1</v>
+      </c>
+      <c r="U56" t="b">
+        <v>1</v>
+      </c>
+      <c r="V56" t="b">
+        <v>1</v>
+      </c>
+      <c r="W56" t="b">
+        <v>1</v>
+      </c>
+      <c r="X56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z56" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="b">
+        <v>1</v>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" t="b">
+        <v>1</v>
+      </c>
+      <c r="M57" t="b">
+        <v>1</v>
+      </c>
+      <c r="N57" t="b">
+        <v>1</v>
+      </c>
+      <c r="O57" t="b">
+        <v>1</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="b">
+        <v>1</v>
+      </c>
+      <c r="R57" t="b">
+        <v>1</v>
+      </c>
+      <c r="S57" t="b">
+        <v>1</v>
+      </c>
+      <c r="T57" t="b">
+        <v>1</v>
+      </c>
+      <c r="U57" t="b">
+        <v>1</v>
+      </c>
+      <c r="V57" t="b">
+        <v>1</v>
+      </c>
+      <c r="W57" t="b">
+        <v>1</v>
+      </c>
+      <c r="X57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="b">
+        <v>1</v>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="b">
+        <v>1</v>
+      </c>
+      <c r="M58" t="b">
+        <v>1</v>
+      </c>
+      <c r="N58" t="b">
+        <v>1</v>
+      </c>
+      <c r="O58" t="b">
+        <v>1</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="b">
+        <v>1</v>
+      </c>
+      <c r="R58" t="b">
+        <v>1</v>
+      </c>
+      <c r="S58" t="b">
+        <v>1</v>
+      </c>
+      <c r="T58" t="b">
+        <v>1</v>
+      </c>
+      <c r="U58" t="b">
+        <v>1</v>
+      </c>
+      <c r="V58" t="b">
+        <v>1</v>
+      </c>
+      <c r="W58" t="b">
+        <v>1</v>
+      </c>
+      <c r="X58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="b">
+        <v>1</v>
+      </c>
+      <c r="M59" t="b">
+        <v>1</v>
+      </c>
+      <c r="N59" t="b">
+        <v>1</v>
+      </c>
+      <c r="O59" t="b">
+        <v>1</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="b">
+        <v>1</v>
+      </c>
+      <c r="R59" t="b">
+        <v>1</v>
+      </c>
+      <c r="S59" t="b">
+        <v>1</v>
+      </c>
+      <c r="T59" t="b">
+        <v>1</v>
+      </c>
+      <c r="U59" t="b">
+        <v>1</v>
+      </c>
+      <c r="V59" t="b">
+        <v>1</v>
+      </c>
+      <c r="W59" t="b">
+        <v>1</v>
+      </c>
+      <c r="X59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="b">
+        <v>1</v>
+      </c>
+      <c r="M60" t="b">
+        <v>1</v>
+      </c>
+      <c r="N60" t="b">
+        <v>1</v>
+      </c>
+      <c r="O60" t="b">
+        <v>1</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="b">
+        <v>1</v>
+      </c>
+      <c r="R60" t="b">
+        <v>1</v>
+      </c>
+      <c r="S60" t="b">
+        <v>1</v>
+      </c>
+      <c r="T60" t="b">
+        <v>1</v>
+      </c>
+      <c r="U60" t="b">
+        <v>1</v>
+      </c>
+      <c r="V60" t="b">
+        <v>1</v>
+      </c>
+      <c r="W60" t="b">
+        <v>1</v>
+      </c>
+      <c r="X60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="b">
+        <v>1</v>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="b">
+        <v>1</v>
+      </c>
+      <c r="M61" t="b">
+        <v>1</v>
+      </c>
+      <c r="N61" t="b">
+        <v>1</v>
+      </c>
+      <c r="O61" t="b">
+        <v>1</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="b">
+        <v>1</v>
+      </c>
+      <c r="R61" t="b">
+        <v>1</v>
+      </c>
+      <c r="S61" t="b">
+        <v>1</v>
+      </c>
+      <c r="T61" t="b">
+        <v>1</v>
+      </c>
+      <c r="U61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V61" t="b">
+        <v>1</v>
+      </c>
+      <c r="W61" t="b">
+        <v>1</v>
+      </c>
+      <c r="X61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z61" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="b">
+        <v>1</v>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" t="b">
+        <v>1</v>
+      </c>
+      <c r="N62" t="b">
+        <v>1</v>
+      </c>
+      <c r="O62" t="b">
+        <v>1</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="b">
+        <v>1</v>
+      </c>
+      <c r="R62" t="b">
+        <v>1</v>
+      </c>
+      <c r="S62" t="b">
+        <v>1</v>
+      </c>
+      <c r="T62" t="b">
+        <v>1</v>
+      </c>
+      <c r="U62" t="b">
+        <v>1</v>
+      </c>
+      <c r="V62" t="b">
+        <v>1</v>
+      </c>
+      <c r="W62" t="b">
+        <v>1</v>
+      </c>
+      <c r="X62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z62" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="b">
+        <v>1</v>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="b">
+        <v>1</v>
+      </c>
+      <c r="M63" t="b">
+        <v>1</v>
+      </c>
+      <c r="N63" t="b">
+        <v>1</v>
+      </c>
+      <c r="O63" t="b">
+        <v>1</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="b">
+        <v>1</v>
+      </c>
+      <c r="R63" t="b">
+        <v>1</v>
+      </c>
+      <c r="S63" t="b">
+        <v>1</v>
+      </c>
+      <c r="T63" t="b">
+        <v>1</v>
+      </c>
+      <c r="U63" t="b">
+        <v>1</v>
+      </c>
+      <c r="V63" t="b">
+        <v>1</v>
+      </c>
+      <c r="W63" t="b">
+        <v>1</v>
+      </c>
+      <c r="X63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="b">
+        <v>1</v>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64" t="b">
+        <v>1</v>
+      </c>
+      <c r="N64" t="b">
+        <v>1</v>
+      </c>
+      <c r="O64" t="b">
+        <v>1</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="b">
+        <v>1</v>
+      </c>
+      <c r="R64" t="b">
+        <v>1</v>
+      </c>
+      <c r="S64" t="b">
+        <v>1</v>
+      </c>
+      <c r="T64" t="b">
+        <v>1</v>
+      </c>
+      <c r="U64" t="b">
+        <v>1</v>
+      </c>
+      <c r="V64" t="b">
+        <v>1</v>
+      </c>
+      <c r="W64" t="b">
+        <v>1</v>
+      </c>
+      <c r="X64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z64" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" t="b">
+        <v>1</v>
+      </c>
+      <c r="M65" t="b">
+        <v>1</v>
+      </c>
+      <c r="N65" t="b">
+        <v>1</v>
+      </c>
+      <c r="O65" t="b">
+        <v>1</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="b">
+        <v>1</v>
+      </c>
+      <c r="R65" t="b">
+        <v>1</v>
+      </c>
+      <c r="S65" t="b">
+        <v>1</v>
+      </c>
+      <c r="T65" t="b">
+        <v>1</v>
+      </c>
+      <c r="U65" t="b">
+        <v>1</v>
+      </c>
+      <c r="V65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W65" t="b">
+        <v>1</v>
+      </c>
+      <c r="X65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z65" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="b">
+        <v>1</v>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66" t="b">
+        <v>1</v>
+      </c>
+      <c r="N66" t="b">
+        <v>1</v>
+      </c>
+      <c r="O66" t="b">
+        <v>1</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="b">
+        <v>1</v>
+      </c>
+      <c r="R66" t="b">
+        <v>1</v>
+      </c>
+      <c r="S66" t="b">
+        <v>1</v>
+      </c>
+      <c r="T66" t="b">
+        <v>1</v>
+      </c>
+      <c r="U66" t="b">
+        <v>1</v>
+      </c>
+      <c r="V66" t="b">
+        <v>1</v>
+      </c>
+      <c r="W66" t="b">
+        <v>1</v>
+      </c>
+      <c r="X66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>106</v>
+      </c>
+      <c r="B67" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" t="b">
+        <v>1</v>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" t="b">
+        <v>1</v>
+      </c>
+      <c r="M67" t="b">
+        <v>1</v>
+      </c>
+      <c r="N67" t="b">
+        <v>1</v>
+      </c>
+      <c r="O67" t="b">
+        <v>1</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="b">
+        <v>1</v>
+      </c>
+      <c r="R67" t="b">
+        <v>1</v>
+      </c>
+      <c r="S67" t="b">
+        <v>1</v>
+      </c>
+      <c r="T67" t="b">
+        <v>1</v>
+      </c>
+      <c r="U67" t="b">
+        <v>1</v>
+      </c>
+      <c r="V67" t="b">
+        <v>1</v>
+      </c>
+      <c r="W67" t="b">
+        <v>1</v>
+      </c>
+      <c r="X67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z67" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inputs_for_prioritization_model.xlsx
+++ b/inputs_for_prioritization_model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CMADSEN\Downloads\LocalR\long_term_projects\ais_prioritization_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/john_phelan_gov_bc_ca/Documents/R_projects/ais_prioritization_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C65A9D-9E27-41DB-986C-C83B0538B9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{07C65A9D-9E27-41DB-986C-C83B0538B9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F03E011-3ABF-4496-8290-EB180B360179}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -402,9 +402,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,10 +867,13 @@
   <dimension ref="A1:AA67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1120,86 +1124,86 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4" t="b">
-        <v>1</v>
-      </c>
-      <c r="U4" t="b">
-        <v>1</v>
-      </c>
-      <c r="V4" t="b">
-        <v>1</v>
-      </c>
-      <c r="W4" t="b">
-        <v>1</v>
-      </c>
-      <c r="X4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA4" t="b">
+      <c r="B4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2" t="b">
         <v>1</v>
       </c>
     </row>

--- a/inputs_for_prioritization_model.xlsx
+++ b/inputs_for_prioritization_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/john_phelan_gov_bc_ca/Documents/R_projects/ais_prioritization_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{07C65A9D-9E27-41DB-986C-C83B0538B9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F03E011-3ABF-4496-8290-EB180B360179}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{07C65A9D-9E27-41DB-986C-C83B0538B9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F8E857D-4675-421D-A2A3-61BDFF617156}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="2" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -421,6 +421,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -746,14 +750,14 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,7 +769,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -776,7 +780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -787,7 +791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -798,7 +802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -822,37 +826,37 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -867,15 +871,15 @@
   <dimension ref="A1:AA67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -958,7 +962,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -1041,7 +1045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
@@ -1207,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1290,7 +1294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1373,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -1456,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1539,7 +1543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1622,7 +1626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1705,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1788,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1871,7 +1875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1954,7 +1958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2037,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -2120,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -2203,7 +2207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -2286,7 +2290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -2369,7 +2373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -2452,7 +2456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -2535,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -2618,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -2701,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -2784,7 +2788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -2867,7 +2871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -2950,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -3033,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -3116,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -3199,7 +3203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -3282,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -3365,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -3448,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -3531,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -3614,7 +3618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -3697,7 +3701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -3780,7 +3784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -3863,7 +3867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -3946,7 +3950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -4029,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -4112,7 +4116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -4195,7 +4199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -4278,7 +4282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -4361,7 +4365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -4444,7 +4448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -4527,7 +4531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -4610,7 +4614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -4693,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -4776,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -4859,7 +4863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>88</v>
       </c>
@@ -4942,7 +4946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>89</v>
       </c>
@@ -5025,7 +5029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -5108,7 +5112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -5191,7 +5195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -5274,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -5357,7 +5361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>94</v>
       </c>
@@ -5440,7 +5444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -5523,7 +5527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>96</v>
       </c>
@@ -5606,7 +5610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>97</v>
       </c>
@@ -5689,7 +5693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>98</v>
       </c>
@@ -5772,7 +5776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>99</v>
       </c>
@@ -5855,7 +5859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>100</v>
       </c>
@@ -5938,7 +5942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>101</v>
       </c>
@@ -6021,7 +6025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>102</v>
       </c>
@@ -6104,7 +6108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>103</v>
       </c>
@@ -6187,7 +6191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>104</v>
       </c>
@@ -6270,7 +6274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>105</v>
       </c>
@@ -6353,7 +6357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>106</v>
       </c>

--- a/inputs_for_prioritization_model.xlsx
+++ b/inputs_for_prioritization_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CMADSEN\Downloads\LocalR\long_term_projects\ais_prioritization_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C65A9D-9E27-41DB-986C-C83B0538B9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CB47B3-726A-4913-A40B-3164D69D4E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
   <si>
     <t>Region</t>
   </si>
@@ -359,6 +359,15 @@
   </si>
   <si>
     <t>Mosquitofish</t>
+  </si>
+  <si>
+    <t>Westwood Lake</t>
+  </si>
+  <si>
+    <t>Pend d'Oreille</t>
+  </si>
+  <si>
+    <t>Kootenay-Boundary</t>
   </si>
 </sst>
 </file>
@@ -739,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6445779-2465-4917-922C-4EA6D80CF35A}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -808,17 +817,51 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{82CF97C2-EA65-4800-8639-75B403DC8653}">
+          <x14:formula1>
+            <xm:f>acceptable_values!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5D5ACA-2DE5-4A6B-92E6-533B2359B352}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -856,6 +899,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -865,7 +913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9ABB0D-65E2-4F7D-8309-D592BA9BA411}">
   <dimension ref="A1:AA67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>

--- a/inputs_for_prioritization_model.xlsx
+++ b/inputs_for_prioritization_model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CMADSEN\Downloads\LocalR\long_term_projects\ais_prioritization_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CB47B3-726A-4913-A40B-3164D69D4E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B39E24-7080-461A-B14F-7609AAF44397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="111">
   <si>
     <t>Region</t>
   </si>
@@ -364,10 +364,13 @@
     <t>Westwood Lake</t>
   </si>
   <si>
-    <t>Pend d'Oreille</t>
-  </si>
-  <si>
     <t>Kootenay-Boundary</t>
+  </si>
+  <si>
+    <t>Pend-d'Oreille River</t>
+  </si>
+  <si>
+    <t>Current Projects / 3rd Party Interest (1 to 3)</t>
   </si>
 </sst>
 </file>
@@ -751,7 +754,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,6 +762,7 @@
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -771,7 +775,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -783,6 +789,9 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -794,6 +803,9 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -805,6 +817,9 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -816,6 +831,9 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -827,16 +845,22 @@
       <c r="C6" t="s">
         <v>107</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
         <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -901,7 +925,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/inputs_for_prioritization_model.xlsx
+++ b/inputs_for_prioritization_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CMADSEN\Downloads\LocalR\long_term_projects\ais_prioritization_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B39E24-7080-461A-B14F-7609AAF44397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5790F59A-0DC6-4C38-8130-B5AF22FDB44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="2" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -753,7 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6445779-2465-4917-922C-4EA6D80CF35A}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9ABB0D-65E2-4F7D-8309-D592BA9BA411}">
   <dimension ref="A1:AA67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1197,10 +1197,10 @@
         <v>44</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1236,22 +1236,22 @@
         <v>1</v>
       </c>
       <c r="O4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="b">
         <v>1</v>
       </c>
       <c r="T4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="b">
         <v>1</v>
@@ -1260,13 +1260,13 @@
         <v>1</v>
       </c>
       <c r="W4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="b">
         <v>1</v>

--- a/inputs_for_prioritization_model.xlsx
+++ b/inputs_for_prioritization_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CMADSEN\Downloads\LocalR\long_term_projects\ais_prioritization_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5790F59A-0DC6-4C38-8130-B5AF22FDB44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B40079C-BB80-4BEF-8902-D8AE38CB6AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="2" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6445779-2465-4917-922C-4EA6D80CF35A}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,11 +937,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9ABB0D-65E2-4F7D-8309-D592BA9BA411}">
   <dimension ref="A1:AA67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/inputs_for_prioritization_model.xlsx
+++ b/inputs_for_prioritization_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CMADSEN\Downloads\LocalR\long_term_projects\ais_prioritization_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B40079C-BB80-4BEF-8902-D8AE38CB6AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19E406E-4084-4245-834A-78E8EBC7A084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
   <si>
     <t>Region</t>
   </si>
@@ -368,9 +368,6 @@
   </si>
   <si>
     <t>Pend-d'Oreille River</t>
-  </si>
-  <si>
-    <t>Current Projects / 3rd Party Interest (1 to 3)</t>
   </si>
 </sst>
 </file>
@@ -753,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6445779-2465-4917-922C-4EA6D80CF35A}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,9 +772,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -789,9 +784,6 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -803,9 +795,6 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -817,9 +806,6 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -831,9 +817,6 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -845,9 +828,6 @@
       <c r="C6" t="s">
         <v>107</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -858,9 +838,6 @@
       </c>
       <c r="C7" t="s">
         <v>109</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -937,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9ABB0D-65E2-4F7D-8309-D592BA9BA411}">
   <dimension ref="A1:AA67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1046,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1055,13 +1032,13 @@
         <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -1129,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1138,13 +1115,13 @@
         <v>1</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -1212,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -1221,13 +1198,13 @@
         <v>1</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
@@ -1295,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1304,13 +1281,13 @@
         <v>1</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
@@ -1378,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -1387,13 +1364,13 @@
         <v>1</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -1461,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1470,13 +1447,13 @@
         <v>1</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -1544,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -1553,13 +1530,13 @@
         <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -1627,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -1636,13 +1613,13 @@
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -1710,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -1719,13 +1696,13 @@
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -1793,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -1802,13 +1779,13 @@
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="b">
         <v>1</v>
@@ -1876,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -1885,13 +1862,13 @@
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -1959,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -1968,13 +1945,13 @@
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
@@ -2042,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -2051,13 +2028,13 @@
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
@@ -2125,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -2134,13 +2111,13 @@
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
@@ -2208,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -2217,13 +2194,13 @@
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
@@ -2291,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -2300,13 +2277,13 @@
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="b">
         <v>1</v>
@@ -2374,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -2383,13 +2360,13 @@
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>
@@ -2457,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -2466,13 +2443,13 @@
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="b">
         <v>1</v>
@@ -2540,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2549,13 +2526,13 @@
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
@@ -2623,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -2632,13 +2609,13 @@
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="b">
         <v>1</v>
@@ -2706,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2715,13 +2692,13 @@
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="b">
         <v>1</v>
@@ -2789,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -2798,13 +2775,13 @@
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="b">
         <v>1</v>
@@ -2872,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -2881,13 +2858,13 @@
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="b">
         <v>1</v>
@@ -2955,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -2964,13 +2941,13 @@
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="b">
         <v>1</v>
@@ -3038,7 +3015,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -3047,13 +3024,13 @@
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="b">
         <v>1</v>
@@ -3121,7 +3098,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -3130,13 +3107,13 @@
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="b">
         <v>1</v>
@@ -3204,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -3213,13 +3190,13 @@
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="b">
         <v>1</v>
@@ -3287,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -3296,13 +3273,13 @@
         <v>1</v>
       </c>
       <c r="I29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="b">
         <v>1</v>
@@ -3370,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -3379,13 +3356,13 @@
         <v>1</v>
       </c>
       <c r="I30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="b">
         <v>1</v>
@@ -3453,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -3462,13 +3439,13 @@
         <v>1</v>
       </c>
       <c r="I31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="b">
         <v>1</v>
@@ -3536,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
@@ -3545,13 +3522,13 @@
         <v>1</v>
       </c>
       <c r="I32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="b">
         <v>1</v>
@@ -3619,7 +3596,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -3628,13 +3605,13 @@
         <v>1</v>
       </c>
       <c r="I33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="b">
         <v>1</v>
@@ -3702,7 +3679,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -3711,13 +3688,13 @@
         <v>1</v>
       </c>
       <c r="I34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="b">
         <v>1</v>
@@ -3785,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -3794,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="I35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="b">
         <v>1</v>
@@ -3868,7 +3845,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -3877,13 +3854,13 @@
         <v>1</v>
       </c>
       <c r="I36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="b">
         <v>1</v>
@@ -3951,7 +3928,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -3960,13 +3937,13 @@
         <v>1</v>
       </c>
       <c r="I37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="b">
         <v>1</v>
@@ -4034,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -4043,13 +4020,13 @@
         <v>1</v>
       </c>
       <c r="I38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="b">
         <v>1</v>
@@ -4117,7 +4094,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -4126,13 +4103,13 @@
         <v>1</v>
       </c>
       <c r="I39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="b">
         <v>1</v>
@@ -4200,7 +4177,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -4209,13 +4186,13 @@
         <v>1</v>
       </c>
       <c r="I40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="b">
         <v>1</v>
@@ -4283,7 +4260,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
@@ -4292,13 +4269,13 @@
         <v>1</v>
       </c>
       <c r="I41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" t="b">
         <v>1</v>
@@ -4366,7 +4343,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -4375,13 +4352,13 @@
         <v>1</v>
       </c>
       <c r="I42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="b">
         <v>1</v>
@@ -4449,7 +4426,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
@@ -4458,13 +4435,13 @@
         <v>1</v>
       </c>
       <c r="I43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" t="b">
         <v>1</v>
@@ -4532,7 +4509,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -4541,13 +4518,13 @@
         <v>1</v>
       </c>
       <c r="I44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="b">
         <v>1</v>
@@ -4615,7 +4592,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -4624,13 +4601,13 @@
         <v>1</v>
       </c>
       <c r="I45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="b">
         <v>1</v>
@@ -4698,7 +4675,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -4707,13 +4684,13 @@
         <v>1</v>
       </c>
       <c r="I46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="b">
         <v>1</v>
@@ -4781,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
@@ -4790,13 +4767,13 @@
         <v>1</v>
       </c>
       <c r="I47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" t="b">
         <v>1</v>
@@ -4864,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -4873,13 +4850,13 @@
         <v>1</v>
       </c>
       <c r="I48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="b">
         <v>1</v>
@@ -4947,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -4956,13 +4933,13 @@
         <v>1</v>
       </c>
       <c r="I49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="b">
         <v>1</v>
@@ -5030,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
@@ -5039,13 +5016,13 @@
         <v>1</v>
       </c>
       <c r="I50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" t="b">
         <v>1</v>
@@ -5113,7 +5090,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
@@ -5122,13 +5099,13 @@
         <v>1</v>
       </c>
       <c r="I51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" t="b">
         <v>1</v>
@@ -5196,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
@@ -5205,13 +5182,13 @@
         <v>1</v>
       </c>
       <c r="I52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="b">
         <v>1</v>
@@ -5279,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
@@ -5288,13 +5265,13 @@
         <v>1</v>
       </c>
       <c r="I53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="b">
         <v>1</v>
@@ -5362,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
@@ -5371,13 +5348,13 @@
         <v>1</v>
       </c>
       <c r="I54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" t="b">
         <v>1</v>
@@ -5445,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
@@ -5454,13 +5431,13 @@
         <v>1</v>
       </c>
       <c r="I55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" t="b">
         <v>1</v>
@@ -5528,7 +5505,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
@@ -5537,13 +5514,13 @@
         <v>1</v>
       </c>
       <c r="I56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" t="b">
         <v>1</v>
@@ -5611,7 +5588,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -5620,13 +5597,13 @@
         <v>1</v>
       </c>
       <c r="I57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" t="b">
         <v>1</v>
@@ -5694,7 +5671,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
@@ -5703,13 +5680,13 @@
         <v>1</v>
       </c>
       <c r="I58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" t="b">
         <v>1</v>
@@ -5777,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
@@ -5786,13 +5763,13 @@
         <v>1</v>
       </c>
       <c r="I59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" t="b">
         <v>1</v>
@@ -5860,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -5869,13 +5846,13 @@
         <v>1</v>
       </c>
       <c r="I60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" t="b">
         <v>1</v>
@@ -5943,7 +5920,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
@@ -5952,13 +5929,13 @@
         <v>1</v>
       </c>
       <c r="I61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" t="b">
         <v>1</v>
@@ -6026,7 +6003,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
@@ -6035,13 +6012,13 @@
         <v>1</v>
       </c>
       <c r="I62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" t="b">
         <v>1</v>
@@ -6109,7 +6086,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -6118,13 +6095,13 @@
         <v>1</v>
       </c>
       <c r="I63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" t="b">
         <v>1</v>
@@ -6192,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
@@ -6201,13 +6178,13 @@
         <v>1</v>
       </c>
       <c r="I64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" t="b">
         <v>1</v>
@@ -6275,7 +6252,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -6284,13 +6261,13 @@
         <v>1</v>
       </c>
       <c r="I65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" t="b">
         <v>1</v>
@@ -6358,7 +6335,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
@@ -6367,13 +6344,13 @@
         <v>1</v>
       </c>
       <c r="I66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" t="b">
         <v>1</v>
@@ -6441,7 +6418,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
@@ -6450,13 +6427,13 @@
         <v>1</v>
       </c>
       <c r="I67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" t="b">
         <v>1</v>

--- a/inputs_for_prioritization_model.xlsx
+++ b/inputs_for_prioritization_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CMADSEN\Downloads\LocalR\long_term_projects\ais_prioritization_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19E406E-4084-4245-834A-78E8EBC7A084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E38460-96B4-4E41-83AD-CAB0FAA1F926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="108">
   <si>
     <t>Region</t>
   </si>
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t>Peace</t>
-  </si>
-  <si>
-    <t>Smallmouth Bass</t>
-  </si>
-  <si>
-    <t>Asian Clam</t>
   </si>
   <si>
     <t>Goldfish</t>
@@ -750,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6445779-2465-4917-922C-4EA6D80CF35A}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,10 +773,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -790,10 +784,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -801,10 +795,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -812,10 +806,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -823,21 +817,21 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -902,7 +896,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9ABB0D-65E2-4F7D-8309-D592BA9BA411}">
   <dimension ref="A1:AA67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -925,90 +919,90 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>31</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>32</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>39</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1091,7 +1085,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1174,7 +1168,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -1257,7 +1251,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1340,7 +1334,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1423,7 +1417,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1506,7 +1500,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1589,7 +1583,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1672,7 +1666,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1755,7 +1749,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1838,7 +1832,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -1921,7 +1915,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2004,7 +1998,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2087,7 +2081,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2170,7 +2164,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2253,7 +2247,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2336,7 +2330,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2419,7 +2413,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -2502,7 +2496,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -2585,7 +2579,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -2668,7 +2662,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -2751,7 +2745,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -2834,7 +2828,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -2917,7 +2911,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
@@ -3000,7 +2994,7 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
@@ -3083,7 +3077,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
@@ -3166,7 +3160,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
@@ -3249,7 +3243,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
@@ -3332,7 +3326,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B30" t="b">
         <v>1</v>
@@ -3415,7 +3409,7 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
@@ -3498,7 +3492,7 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
@@ -3581,7 +3575,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
@@ -3664,7 +3658,7 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B34" t="b">
         <v>1</v>
@@ -3747,7 +3741,7 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B35" t="b">
         <v>1</v>
@@ -3830,7 +3824,7 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B36" t="b">
         <v>1</v>
@@ -3913,7 +3907,7 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B37" t="b">
         <v>1</v>
@@ -3996,7 +3990,7 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38" t="b">
         <v>1</v>
@@ -4079,7 +4073,7 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
@@ -4162,7 +4156,7 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B40" t="b">
         <v>1</v>
@@ -4245,7 +4239,7 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B41" t="b">
         <v>1</v>
@@ -4328,7 +4322,7 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B42" t="b">
         <v>1</v>
@@ -4411,7 +4405,7 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B43" t="b">
         <v>1</v>
@@ -4494,7 +4488,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B44" t="b">
         <v>1</v>
@@ -4577,7 +4571,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B45" t="b">
         <v>1</v>
@@ -4660,7 +4654,7 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B46" t="b">
         <v>1</v>
@@ -4743,7 +4737,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B47" t="b">
         <v>1</v>
@@ -4826,7 +4820,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B48" t="b">
         <v>1</v>
@@ -4909,7 +4903,7 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B49" t="b">
         <v>1</v>
@@ -4992,7 +4986,7 @@
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B50" t="b">
         <v>1</v>
@@ -5075,7 +5069,7 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B51" t="b">
         <v>1</v>
@@ -5158,7 +5152,7 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B52" t="b">
         <v>1</v>
@@ -5241,7 +5235,7 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B53" t="b">
         <v>1</v>
@@ -5324,7 +5318,7 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B54" t="b">
         <v>1</v>
@@ -5407,7 +5401,7 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B55" t="b">
         <v>1</v>
@@ -5490,7 +5484,7 @@
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B56" t="b">
         <v>1</v>
@@ -5573,7 +5567,7 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B57" t="b">
         <v>1</v>
@@ -5656,7 +5650,7 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B58" t="b">
         <v>1</v>
@@ -5739,7 +5733,7 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B59" t="b">
         <v>1</v>
@@ -5822,7 +5816,7 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B60" t="b">
         <v>1</v>
@@ -5905,7 +5899,7 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B61" t="b">
         <v>1</v>
@@ -5988,7 +5982,7 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B62" t="b">
         <v>1</v>
@@ -6071,7 +6065,7 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B63" t="b">
         <v>1</v>
@@ -6154,7 +6148,7 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B64" t="b">
         <v>1</v>
@@ -6237,7 +6231,7 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B65" t="b">
         <v>1</v>
@@ -6320,7 +6314,7 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B66" t="b">
         <v>1</v>
@@ -6403,7 +6397,7 @@
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B67" t="b">
         <v>1</v>

--- a/inputs_for_prioritization_model.xlsx
+++ b/inputs_for_prioritization_model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CMADSEN\Downloads\LocalR\long_term_projects\ais_prioritization_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E38460-96B4-4E41-83AD-CAB0FAA1F926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF58501-A22F-43DF-86ED-D736154BCF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="111">
   <si>
     <t>Region</t>
   </si>
@@ -362,6 +362,15 @@
   </si>
   <si>
     <t>Pend-d'Oreille River</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Established_in_Waterbody</t>
   </si>
 </sst>
 </file>
@@ -745,7 +754,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,7 +775,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -778,6 +789,9 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -789,6 +803,9 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -800,6 +817,9 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -811,6 +831,9 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -822,6 +845,9 @@
       <c r="C6" t="s">
         <v>105</v>
       </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -832,6 +858,9 @@
       </c>
       <c r="C7" t="s">
         <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/inputs_for_prioritization_model.xlsx
+++ b/inputs_for_prioritization_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CMADSEN\Downloads\LocalR\long_term_projects\ais_prioritization_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF58501-A22F-43DF-86ED-D736154BCF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B2BF77-AD64-468F-B904-DAA1BD147936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -753,7 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6445779-2465-4917-922C-4EA6D80CF35A}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9ABB0D-65E2-4F7D-8309-D592BA9BA411}">
   <dimension ref="A1:AA67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1034,10 +1034,10 @@
         <v>40</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -1117,10 +1117,10 @@
         <v>41</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1283,10 +1283,10 @@
         <v>43</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -1366,10 +1366,10 @@
         <v>44</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1449,10 +1449,10 @@
         <v>45</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1532,10 +1532,10 @@
         <v>46</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -1615,10 +1615,10 @@
         <v>47</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1698,10 +1698,10 @@
         <v>48</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1781,10 +1781,10 @@
         <v>49</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -1864,10 +1864,10 @@
         <v>50</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -1947,10 +1947,10 @@
         <v>51</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -2030,10 +2030,10 @@
         <v>52</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -2113,10 +2113,10 @@
         <v>53</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -2196,10 +2196,10 @@
         <v>54</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -2279,10 +2279,10 @@
         <v>55</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -2362,10 +2362,10 @@
         <v>56</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -2445,10 +2445,10 @@
         <v>8</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -2528,10 +2528,10 @@
         <v>57</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -2611,10 +2611,10 @@
         <v>58</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -2694,10 +2694,10 @@
         <v>59</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -2777,10 +2777,10 @@
         <v>60</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -2860,10 +2860,10 @@
         <v>61</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -2943,10 +2943,10 @@
         <v>62</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -3026,10 +3026,10 @@
         <v>63</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -3109,10 +3109,10 @@
         <v>64</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -3192,10 +3192,10 @@
         <v>65</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -3275,10 +3275,10 @@
         <v>66</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3358,10 +3358,10 @@
         <v>67</v>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -3441,10 +3441,10 @@
         <v>68</v>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -3524,10 +3524,10 @@
         <v>69</v>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -3607,10 +3607,10 @@
         <v>70</v>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -3690,10 +3690,10 @@
         <v>71</v>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -3773,10 +3773,10 @@
         <v>72</v>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -3856,10 +3856,10 @@
         <v>73</v>
       </c>
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -3939,10 +3939,10 @@
         <v>74</v>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -4022,10 +4022,10 @@
         <v>75</v>
       </c>
       <c r="B38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -4105,10 +4105,10 @@
         <v>76</v>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -4188,10 +4188,10 @@
         <v>77</v>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
@@ -4271,10 +4271,10 @@
         <v>78</v>
       </c>
       <c r="B41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -4354,10 +4354,10 @@
         <v>79</v>
       </c>
       <c r="B42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -4437,10 +4437,10 @@
         <v>80</v>
       </c>
       <c r="B43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -4520,10 +4520,10 @@
         <v>81</v>
       </c>
       <c r="B44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
@@ -4603,10 +4603,10 @@
         <v>82</v>
       </c>
       <c r="B45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -4686,10 +4686,10 @@
         <v>83</v>
       </c>
       <c r="B46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -4769,10 +4769,10 @@
         <v>84</v>
       </c>
       <c r="B47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -4852,10 +4852,10 @@
         <v>85</v>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -4935,10 +4935,10 @@
         <v>86</v>
       </c>
       <c r="B49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -5018,10 +5018,10 @@
         <v>87</v>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -5101,10 +5101,10 @@
         <v>88</v>
       </c>
       <c r="B51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -5184,10 +5184,10 @@
         <v>89</v>
       </c>
       <c r="B52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -5267,10 +5267,10 @@
         <v>90</v>
       </c>
       <c r="B53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
@@ -5350,10 +5350,10 @@
         <v>91</v>
       </c>
       <c r="B54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
@@ -5433,10 +5433,10 @@
         <v>92</v>
       </c>
       <c r="B55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
@@ -5516,10 +5516,10 @@
         <v>93</v>
       </c>
       <c r="B56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
@@ -5599,10 +5599,10 @@
         <v>94</v>
       </c>
       <c r="B57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
@@ -5682,10 +5682,10 @@
         <v>95</v>
       </c>
       <c r="B58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
@@ -5765,10 +5765,10 @@
         <v>96</v>
       </c>
       <c r="B59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
@@ -5848,10 +5848,10 @@
         <v>97</v>
       </c>
       <c r="B60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -5931,10 +5931,10 @@
         <v>98</v>
       </c>
       <c r="B61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
@@ -6014,10 +6014,10 @@
         <v>99</v>
       </c>
       <c r="B62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="b">
         <v>1</v>
@@ -6097,10 +6097,10 @@
         <v>100</v>
       </c>
       <c r="B63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
@@ -6180,10 +6180,10 @@
         <v>101</v>
       </c>
       <c r="B64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
@@ -6263,10 +6263,10 @@
         <v>102</v>
       </c>
       <c r="B65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -6346,10 +6346,10 @@
         <v>103</v>
       </c>
       <c r="B66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
@@ -6429,10 +6429,10 @@
         <v>104</v>
       </c>
       <c r="B67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>

--- a/inputs_for_prioritization_model.xlsx
+++ b/inputs_for_prioritization_model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CMADSEN\Downloads\LocalR\long_term_projects\ais_prioritization_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/john_phelan_gov_bc_ca/Documents/R_projects/ais_prioritization_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B2BF77-AD64-468F-B904-DAA1BD147936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{77B2BF77-AD64-468F-B904-DAA1BD147936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F93C6DE8-D386-4523-B75E-A5D0E5DF860D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -757,15 +757,15 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,7 +779,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -793,7 +793,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -807,7 +807,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -821,7 +821,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -835,7 +835,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -849,7 +849,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -888,42 +888,42 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -938,15 +938,18 @@
   <dimension ref="A1:AA67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C67"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1029,7 +1032,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1097,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="W2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="b">
         <v>1</v>
@@ -1112,7 +1115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1180,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="W3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" t="b">
         <v>1</v>
@@ -1195,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1278,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1346,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="W5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" t="b">
         <v>1</v>
@@ -1361,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1429,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="W6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="b">
         <v>1</v>
@@ -1444,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1512,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="W7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="b">
         <v>1</v>
@@ -1527,7 +1530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1595,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="W8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="b">
         <v>1</v>
@@ -1610,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="W9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" t="b">
         <v>1</v>
@@ -1693,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1761,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="W10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" t="b">
         <v>1</v>
@@ -1776,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1844,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="W11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" t="b">
         <v>1</v>
@@ -1859,7 +1862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1927,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="W12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" t="b">
         <v>1</v>
@@ -1942,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2010,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="W13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="b">
         <v>1</v>
@@ -2025,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2093,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="W14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" t="b">
         <v>1</v>
@@ -2108,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2176,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="W15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" t="b">
         <v>1</v>
@@ -2191,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -2259,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="W16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" t="b">
         <v>1</v>
@@ -2274,7 +2277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2342,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="W17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" t="b">
         <v>1</v>
@@ -2357,7 +2360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2425,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="W18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" t="b">
         <v>1</v>
@@ -2440,7 +2443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2508,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="W19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" t="b">
         <v>1</v>
@@ -2523,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -2591,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="W20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" t="b">
         <v>1</v>
@@ -2606,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -2674,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="W21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" t="b">
         <v>1</v>
@@ -2689,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -2757,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="W22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" t="b">
         <v>1</v>
@@ -2772,7 +2775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -2840,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="W23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" t="b">
         <v>1</v>
@@ -2855,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -2923,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="W24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" t="b">
         <v>1</v>
@@ -2938,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -3006,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="W25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" t="b">
         <v>1</v>
@@ -3021,7 +3024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -3089,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="W26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" t="b">
         <v>1</v>
@@ -3104,7 +3107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -3172,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="W27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" t="b">
         <v>1</v>
@@ -3187,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -3255,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="W28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" t="b">
         <v>1</v>
@@ -3270,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -3338,7 +3341,7 @@
         <v>1</v>
       </c>
       <c r="W29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" t="b">
         <v>1</v>
@@ -3353,7 +3356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -3421,7 +3424,7 @@
         <v>1</v>
       </c>
       <c r="W30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" t="b">
         <v>1</v>
@@ -3436,7 +3439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -3504,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="W31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31" t="b">
         <v>1</v>
@@ -3519,7 +3522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -3587,7 +3590,7 @@
         <v>1</v>
       </c>
       <c r="W32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X32" t="b">
         <v>1</v>
@@ -3602,7 +3605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -3670,7 +3673,7 @@
         <v>1</v>
       </c>
       <c r="W33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33" t="b">
         <v>1</v>
@@ -3685,7 +3688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -3753,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="W34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34" t="b">
         <v>1</v>
@@ -3768,7 +3771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -3836,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="W35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35" t="b">
         <v>1</v>
@@ -3851,7 +3854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -3919,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="W36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X36" t="b">
         <v>1</v>
@@ -3934,7 +3937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -4002,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="W37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" t="b">
         <v>1</v>
@@ -4017,7 +4020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -4085,7 +4088,7 @@
         <v>1</v>
       </c>
       <c r="W38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38" t="b">
         <v>1</v>
@@ -4100,7 +4103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -4168,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="W39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" t="b">
         <v>1</v>
@@ -4183,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -4251,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="W40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40" t="b">
         <v>1</v>
@@ -4266,7 +4269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -4334,7 +4337,7 @@
         <v>1</v>
       </c>
       <c r="W41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" t="b">
         <v>1</v>
@@ -4349,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -4417,7 +4420,7 @@
         <v>1</v>
       </c>
       <c r="W42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42" t="b">
         <v>1</v>
@@ -4432,7 +4435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -4500,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="W43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43" t="b">
         <v>1</v>
@@ -4515,7 +4518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -4583,7 +4586,7 @@
         <v>1</v>
       </c>
       <c r="W44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44" t="b">
         <v>1</v>
@@ -4598,7 +4601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="W45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X45" t="b">
         <v>1</v>
@@ -4681,7 +4684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -4749,7 +4752,7 @@
         <v>1</v>
       </c>
       <c r="W46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X46" t="b">
         <v>1</v>
@@ -4764,7 +4767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -4832,7 +4835,7 @@
         <v>1</v>
       </c>
       <c r="W47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X47" t="b">
         <v>1</v>
@@ -4847,7 +4850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>85</v>
       </c>
@@ -4915,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="W48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X48" t="b">
         <v>1</v>
@@ -4930,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -4998,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="W49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X49" t="b">
         <v>1</v>
@@ -5013,7 +5016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -5081,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="W50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X50" t="b">
         <v>1</v>
@@ -5096,7 +5099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -5164,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="W51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X51" t="b">
         <v>1</v>
@@ -5179,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -5247,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="W52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X52" t="b">
         <v>1</v>
@@ -5262,7 +5265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>90</v>
       </c>
@@ -5330,7 +5333,7 @@
         <v>1</v>
       </c>
       <c r="W53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X53" t="b">
         <v>1</v>
@@ -5345,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -5413,7 +5416,7 @@
         <v>1</v>
       </c>
       <c r="W54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X54" t="b">
         <v>1</v>
@@ -5428,7 +5431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>92</v>
       </c>
@@ -5496,7 +5499,7 @@
         <v>1</v>
       </c>
       <c r="W55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X55" t="b">
         <v>1</v>
@@ -5511,7 +5514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>93</v>
       </c>
@@ -5579,7 +5582,7 @@
         <v>1</v>
       </c>
       <c r="W56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X56" t="b">
         <v>1</v>
@@ -5594,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -5662,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="W57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X57" t="b">
         <v>1</v>
@@ -5677,7 +5680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -5745,7 +5748,7 @@
         <v>1</v>
       </c>
       <c r="W58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X58" t="b">
         <v>1</v>
@@ -5760,7 +5763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -5828,7 +5831,7 @@
         <v>1</v>
       </c>
       <c r="W59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X59" t="b">
         <v>1</v>
@@ -5843,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>97</v>
       </c>
@@ -5911,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="W60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X60" t="b">
         <v>1</v>
@@ -5926,7 +5929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>98</v>
       </c>
@@ -5994,7 +5997,7 @@
         <v>1</v>
       </c>
       <c r="W61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X61" t="b">
         <v>1</v>
@@ -6009,7 +6012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>99</v>
       </c>
@@ -6077,7 +6080,7 @@
         <v>1</v>
       </c>
       <c r="W62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X62" t="b">
         <v>1</v>
@@ -6092,7 +6095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>100</v>
       </c>
@@ -6160,7 +6163,7 @@
         <v>1</v>
       </c>
       <c r="W63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X63" t="b">
         <v>1</v>
@@ -6175,7 +6178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -6243,7 +6246,7 @@
         <v>1</v>
       </c>
       <c r="W64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X64" t="b">
         <v>1</v>
@@ -6258,7 +6261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>102</v>
       </c>
@@ -6326,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="W65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X65" t="b">
         <v>1</v>
@@ -6341,7 +6344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>103</v>
       </c>
@@ -6409,7 +6412,7 @@
         <v>1</v>
       </c>
       <c r="W66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X66" t="b">
         <v>1</v>
@@ -6424,7 +6427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>104</v>
       </c>
@@ -6492,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="W67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X67" t="b">
         <v>1</v>

--- a/inputs_for_prioritization_model.xlsx
+++ b/inputs_for_prioritization_model.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/john_phelan_gov_bc_ca/Documents/R_projects/ais_prioritization_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{77B2BF77-AD64-468F-B904-DAA1BD147936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F93C6DE8-D386-4523-B75E-A5D0E5DF860D}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{77B2BF77-AD64-468F-B904-DAA1BD147936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1DC04BD-07C6-4545-81A0-1F61F7E24EA7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
-    <sheet name="acceptable_values" sheetId="2" r:id="rId2"/>
-    <sheet name="species_predvars" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="acceptable_values" sheetId="2" r:id="rId3"/>
+    <sheet name="species_predvars" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="122">
   <si>
     <t>Region</t>
   </si>
@@ -371,6 +372,39 @@
   </si>
   <si>
     <t>Established_in_Waterbody</t>
+  </si>
+  <si>
+    <t>Fishtrap Creek</t>
+  </si>
+  <si>
+    <t>Sproat Lake</t>
+  </si>
+  <si>
+    <t>Moyie Lake</t>
+  </si>
+  <si>
+    <t>Bittner Creek</t>
+  </si>
+  <si>
+    <t>Shawnigan Lake</t>
+  </si>
+  <si>
+    <t>Garibaldi Lake</t>
+  </si>
+  <si>
+    <t>Green Lake</t>
+  </si>
+  <si>
+    <t>Rosy red minnow</t>
+  </si>
+  <si>
+    <t>Omineca</t>
+  </si>
+  <si>
+    <t>Doesn't exist</t>
+  </si>
+  <si>
+    <t>No MaxEnt</t>
   </si>
 </sst>
 </file>
@@ -432,6 +466,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -751,21 +789,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6445779-2465-4917-922C-4EA6D80CF35A}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,7 +817,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -793,7 +831,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -807,7 +845,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -821,7 +859,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -835,7 +873,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -849,7 +887,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -863,16 +901,59 @@
         <v>108</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{82CF97C2-EA65-4800-8639-75B403DC8653}">
           <x14:formula1>
-            <xm:f>acceptable_values!$A$2:$A$7</xm:f>
+            <xm:f>acceptable_values!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>A1:A1048576</xm:sqref>
+          <xm:sqref>A13:A1048576 A1:A10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -881,51 +962,145 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5D5ACA-2DE5-4A6B-92E6-533B2359B352}">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A209DA1-EB94-4B98-91E7-1060469146A8}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{82CF97C2-EA65-4800-8639-75B403DC8653}">
+          <x14:formula1>
+            <xm:f>acceptable_values!$A$2:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1:A4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5D5ACA-2DE5-4A6B-92E6-533B2359B352}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -933,23 +1108,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9ABB0D-65E2-4F7D-8309-D592BA9BA411}">
   <dimension ref="A1:AA67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1032,7 +1208,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1115,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1198,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1281,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1364,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1447,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1530,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1613,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1696,7 +1872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1779,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1793,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -1862,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1945,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2028,7 +2204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2111,7 +2287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2194,7 +2370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -2277,7 +2453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2360,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2443,7 +2619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2526,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -2609,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -2692,7 +2868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -2775,7 +2951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -2858,7 +3034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -2941,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -3024,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -3107,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -3190,7 +3366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -3273,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -3356,7 +3532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -3439,7 +3615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -3522,7 +3698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -3605,7 +3781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -3688,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -3771,7 +3947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -3854,7 +4030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -3937,7 +4113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -4020,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -4103,7 +4279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -4186,7 +4362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -4269,7 +4445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -4352,7 +4528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -4435,7 +4611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -4518,7 +4694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -4601,7 +4777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -4684,7 +4860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -4767,7 +4943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -4850,7 +5026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>85</v>
       </c>
@@ -4933,7 +5109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -5016,7 +5192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -5099,7 +5275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -5182,7 +5358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -5265,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>90</v>
       </c>
@@ -5348,7 +5524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -5431,7 +5607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>92</v>
       </c>
@@ -5514,7 +5690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>93</v>
       </c>
@@ -5597,7 +5773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -5680,7 +5856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -5763,7 +5939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -5846,7 +6022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>97</v>
       </c>
@@ -5929,7 +6105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>98</v>
       </c>
@@ -6012,7 +6188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>99</v>
       </c>
@@ -6095,7 +6271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>100</v>
       </c>
@@ -6178,7 +6354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -6261,7 +6437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>102</v>
       </c>
@@ -6344,7 +6520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>103</v>
       </c>
@@ -6427,7 +6603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>104</v>
       </c>

--- a/inputs_for_prioritization_model.xlsx
+++ b/inputs_for_prioritization_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/john_phelan_gov_bc_ca/Documents/R_projects/ais_prioritization_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{77B2BF77-AD64-468F-B904-DAA1BD147936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1DC04BD-07C6-4545-81A0-1F61F7E24EA7}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{77B2BF77-AD64-468F-B904-DAA1BD147936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AE68C18-E9BB-4F3C-9E79-7974DBC324FC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6445779-2465-4917-922C-4EA6D80CF35A}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -965,11 +965,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A209DA1-EB94-4B98-91E7-1060469146A8}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/inputs_for_prioritization_model.xlsx
+++ b/inputs_for_prioritization_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/john_phelan_gov_bc_ca/Documents/R_projects/ais_prioritization_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{77B2BF77-AD64-468F-B904-DAA1BD147936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AE68C18-E9BB-4F3C-9E79-7974DBC324FC}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{77B2BF77-AD64-468F-B904-DAA1BD147936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02CD7642-5599-4371-83C1-C1B6A95D90C4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="123">
   <si>
     <t>Region</t>
   </si>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>No MaxEnt</t>
+  </si>
+  <si>
+    <t>Aluminum_Dissolved</t>
   </si>
 </sst>
 </file>
@@ -428,12 +431,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -448,9 +457,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,18 +803,18 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,7 +828,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -831,7 +842,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -845,7 +856,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -859,7 +870,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -873,7 +884,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -887,7 +898,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -901,7 +912,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -915,7 +926,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -929,7 +940,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -965,18 +976,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A209DA1-EB94-4B98-91E7-1060469146A8}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -990,7 +1001,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1004,7 +1015,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -1021,7 +1032,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -1063,47 +1074,47 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -1115,22 +1126,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9ABB0D-65E2-4F7D-8309-D592BA9BA411}">
-  <dimension ref="A1:AA67"/>
+  <dimension ref="A1:AB67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB31" sqref="AB31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1212,8 +1225,11 @@
       <c r="AA1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1295,8 +1311,11 @@
       <c r="AA2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1378,8 +1397,11 @@
       <c r="AA3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1461,8 +1483,11 @@
       <c r="AA4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1544,8 +1569,11 @@
       <c r="AA5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1627,8 +1655,11 @@
       <c r="AA6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1710,8 +1741,11 @@
       <c r="AA7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1793,8 +1827,11 @@
       <c r="AA8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1876,8 +1913,11 @@
       <c r="AA9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1959,8 +1999,11 @@
       <c r="AA10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2042,8 +2085,11 @@
       <c r="AA11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2125,8 +2171,11 @@
       <c r="AA12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2208,8 +2257,11 @@
       <c r="AA13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2291,8 +2343,11 @@
       <c r="AA14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2374,8 +2429,11 @@
       <c r="AA15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -2457,8 +2515,11 @@
       <c r="AA16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2540,8 +2601,11 @@
       <c r="AA17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2687,11 @@
       <c r="AA18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2706,8 +2773,11 @@
       <c r="AA19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -2789,8 +2859,11 @@
       <c r="AA20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -2872,8 +2945,11 @@
       <c r="AA21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -2955,8 +3031,11 @@
       <c r="AA22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -3038,8 +3117,11 @@
       <c r="AA23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -3121,8 +3203,11 @@
       <c r="AA24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -3204,8 +3289,11 @@
       <c r="AA25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -3287,8 +3375,11 @@
       <c r="AA26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -3370,8 +3461,11 @@
       <c r="AA27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -3453,8 +3547,11 @@
       <c r="AA28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -3536,8 +3633,11 @@
       <c r="AA29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -3619,91 +3719,97 @@
       <c r="AA30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="AB30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B31" t="b">
-        <v>0</v>
-      </c>
-      <c r="C31" t="b">
-        <v>0</v>
-      </c>
-      <c r="D31" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="b">
-        <v>0</v>
-      </c>
-      <c r="K31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" t="b">
-        <v>1</v>
-      </c>
-      <c r="M31" t="b">
-        <v>1</v>
-      </c>
-      <c r="N31" t="b">
-        <v>1</v>
-      </c>
-      <c r="O31" t="b">
-        <v>1</v>
-      </c>
-      <c r="P31" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q31" t="b">
-        <v>1</v>
-      </c>
-      <c r="R31" t="b">
-        <v>1</v>
-      </c>
-      <c r="S31" t="b">
-        <v>1</v>
-      </c>
-      <c r="T31" t="b">
-        <v>1</v>
-      </c>
-      <c r="U31" t="b">
-        <v>1</v>
-      </c>
-      <c r="V31" t="b">
-        <v>1</v>
-      </c>
-      <c r="W31" t="b">
-        <v>0</v>
-      </c>
-      <c r="X31" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y31" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -3785,8 +3891,11 @@
       <c r="AA32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -3868,8 +3977,11 @@
       <c r="AA33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -3951,8 +4063,11 @@
       <c r="AA34" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -4034,8 +4149,11 @@
       <c r="AA35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -4117,8 +4235,11 @@
       <c r="AA36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -4200,8 +4321,11 @@
       <c r="AA37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -4283,8 +4407,11 @@
       <c r="AA38" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -4366,8 +4493,11 @@
       <c r="AA39" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -4449,8 +4579,11 @@
       <c r="AA40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -4532,91 +4665,97 @@
       <c r="AA41" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="AB41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B42" t="b">
-        <v>0</v>
-      </c>
-      <c r="C42" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" t="b">
-        <v>1</v>
-      </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" t="b">
-        <v>1</v>
-      </c>
-      <c r="M42" t="b">
-        <v>1</v>
-      </c>
-      <c r="N42" t="b">
-        <v>1</v>
-      </c>
-      <c r="O42" t="b">
-        <v>1</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42" t="b">
-        <v>1</v>
-      </c>
-      <c r="R42" t="b">
-        <v>1</v>
-      </c>
-      <c r="S42" t="b">
-        <v>1</v>
-      </c>
-      <c r="T42" t="b">
-        <v>1</v>
-      </c>
-      <c r="U42" t="b">
-        <v>1</v>
-      </c>
-      <c r="V42" t="b">
-        <v>1</v>
-      </c>
-      <c r="W42" t="b">
-        <v>0</v>
-      </c>
-      <c r="X42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -4698,8 +4837,11 @@
       <c r="AA43" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -4781,8 +4923,11 @@
       <c r="AA44" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -4864,8 +5009,11 @@
       <c r="AA45" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -4947,8 +5095,11 @@
       <c r="AA46" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -5030,8 +5181,11 @@
       <c r="AA47" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>85</v>
       </c>
@@ -5113,8 +5267,11 @@
       <c r="AA48" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5353,11 @@
       <c r="AA49" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -5279,8 +5439,11 @@
       <c r="AA50" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -5362,8 +5525,11 @@
       <c r="AA51" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -5445,8 +5611,11 @@
       <c r="AA52" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>90</v>
       </c>
@@ -5528,8 +5697,11 @@
       <c r="AA53" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -5611,8 +5783,11 @@
       <c r="AA54" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>92</v>
       </c>
@@ -5694,8 +5869,11 @@
       <c r="AA55" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>93</v>
       </c>
@@ -5777,8 +5955,11 @@
       <c r="AA56" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -5860,8 +6041,11 @@
       <c r="AA57" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -5943,8 +6127,11 @@
       <c r="AA58" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -6026,8 +6213,11 @@
       <c r="AA59" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>97</v>
       </c>
@@ -6109,8 +6299,11 @@
       <c r="AA60" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>98</v>
       </c>
@@ -6192,8 +6385,11 @@
       <c r="AA61" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>99</v>
       </c>
@@ -6275,8 +6471,11 @@
       <c r="AA62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>100</v>
       </c>
@@ -6358,8 +6557,11 @@
       <c r="AA63" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -6441,8 +6643,11 @@
       <c r="AA64" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>102</v>
       </c>
@@ -6524,8 +6729,11 @@
       <c r="AA65" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>103</v>
       </c>
@@ -6607,8 +6815,11 @@
       <c r="AA66" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>104</v>
       </c>
@@ -6689,6 +6900,9 @@
       </c>
       <c r="AA67" t="b">
         <v>1</v>
+      </c>
+      <c r="AB67" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inputs_for_prioritization_model.xlsx
+++ b/inputs_for_prioritization_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/john_phelan_gov_bc_ca/Documents/R_projects/ais_prioritization_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{77B2BF77-AD64-468F-B904-DAA1BD147936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02CD7642-5599-4371-83C1-C1B6A95D90C4}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{77B2BF77-AD64-468F-B904-DAA1BD147936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75EF28BE-D56F-42F4-8884-6FA8EB87BF25}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
+    <workbookView xWindow="2730" yWindow="2745" windowWidth="21600" windowHeight="11385" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="123">
   <si>
     <t>Region</t>
   </si>
@@ -431,18 +431,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.89999084444715716"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -457,11 +451,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6445779-2465-4917-922C-4EA6D80CF35A}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,6 +946,20 @@
         <v>109</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -964,7 +970,7 @@
           <x14:formula1>
             <xm:f>acceptable_values!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>A13:A1048576 A1:A10</xm:sqref>
+          <xm:sqref>A13:A1048576 A1:A11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -977,13 +983,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1128,9 +1134,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9ABB0D-65E2-4F7D-8309-D592BA9BA411}">
   <dimension ref="A1:AB67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB31" sqref="AB31"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3723,89 +3729,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="T31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="V31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="W31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="2" t="b">
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="b">
+        <v>1</v>
+      </c>
+      <c r="O31" t="b">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="b">
+        <v>0</v>
+      </c>
+      <c r="R31" t="b">
+        <v>0</v>
+      </c>
+      <c r="S31" t="b">
+        <v>1</v>
+      </c>
+      <c r="T31" t="b">
+        <v>0</v>
+      </c>
+      <c r="U31" t="b">
+        <v>1</v>
+      </c>
+      <c r="V31" t="b">
+        <v>1</v>
+      </c>
+      <c r="W31" t="b">
+        <v>0</v>
+      </c>
+      <c r="X31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4669,89 +4675,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C42" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M42" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N42" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O42" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S42" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T42" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U42" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="V42" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="W42" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X42" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA42" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB42" s="3" t="b">
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" t="b">
+        <v>1</v>
+      </c>
+      <c r="N42" t="b">
+        <v>1</v>
+      </c>
+      <c r="O42" t="b">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="b">
+        <v>0</v>
+      </c>
+      <c r="R42" t="b">
+        <v>0</v>
+      </c>
+      <c r="S42" t="b">
+        <v>1</v>
+      </c>
+      <c r="T42" t="b">
+        <v>0</v>
+      </c>
+      <c r="U42" t="b">
+        <v>1</v>
+      </c>
+      <c r="V42" t="b">
+        <v>1</v>
+      </c>
+      <c r="W42" t="b">
+        <v>0</v>
+      </c>
+      <c r="X42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB42" t="b">
         <v>1</v>
       </c>
     </row>

--- a/inputs_for_prioritization_model.xlsx
+++ b/inputs_for_prioritization_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/john_phelan_gov_bc_ca/Documents/R_projects/ais_prioritization_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{77B2BF77-AD64-468F-B904-DAA1BD147936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75EF28BE-D56F-42F4-8884-6FA8EB87BF25}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{77B2BF77-AD64-468F-B904-DAA1BD147936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1351FD2-8637-49B5-812E-4D45EA6DC4E7}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2745" windowWidth="21600" windowHeight="11385" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="122">
   <si>
     <t>Region</t>
   </si>
@@ -402,9 +402,6 @@
   </si>
   <si>
     <t>Doesn't exist</t>
-  </si>
-  <si>
-    <t>No MaxEnt</t>
   </si>
   <si>
     <t>Aluminum_Dissolved</t>
@@ -795,7 +792,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D11"/>
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,10 +977,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A209DA1-EB94-4B98-91E7-1060469146A8}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,23 +1033,6 @@
       </c>
       <c r="E3" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1232,7 +1212,7 @@
         <v>39</v>
       </c>
       <c r="AB1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">

--- a/inputs_for_prioritization_model.xlsx
+++ b/inputs_for_prioritization_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/john_phelan_gov_bc_ca/Documents/R_projects/ais_prioritization_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{77B2BF77-AD64-468F-B904-DAA1BD147936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1351FD2-8637-49B5-812E-4D45EA6DC4E7}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{77B2BF77-AD64-468F-B904-DAA1BD147936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BFD36C4-9672-403D-82AD-0F346C1B8411}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="121">
   <si>
     <t>Region</t>
   </si>
@@ -399,9 +399,6 @@
   </si>
   <si>
     <t>Omineca</t>
-  </si>
-  <si>
-    <t>Doesn't exist</t>
   </si>
   <si>
     <t>Aluminum_Dissolved</t>
@@ -789,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6445779-2465-4917-922C-4EA6D80CF35A}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,13 +816,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
         <v>108</v>
@@ -839,10 +836,10 @@
         <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -850,10 +847,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>109</v>
@@ -861,55 +858,55 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
         <v>108</v>
@@ -917,27 +914,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
         <v>109</v>
@@ -945,16 +942,58 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>106</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>85</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>113</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -967,7 +1006,7 @@
           <x14:formula1>
             <xm:f>acceptable_values!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>A13:A1048576 A1:A11</xm:sqref>
+          <xm:sqref>A1:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -977,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A209DA1-EB94-4B98-91E7-1060469146A8}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,53 +1028,7 @@
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1044,7 +1037,7 @@
           <x14:formula1>
             <xm:f>acceptable_values!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>A1:A4</xm:sqref>
+          <xm:sqref>A4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1212,7 +1205,7 @@
         <v>39</v>
       </c>
       <c r="AB1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">

--- a/inputs_for_prioritization_model.xlsx
+++ b/inputs_for_prioritization_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/john_phelan_gov_bc_ca/Documents/R_projects/ais_prioritization_models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CMADSEN\Downloads\LocalR\long_term_projects\ais_prioritization_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{77B2BF77-AD64-468F-B904-DAA1BD147936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BFD36C4-9672-403D-82AD-0F346C1B8411}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB0595F-8A9F-4C2C-8279-FB4D889D6E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="127">
   <si>
     <t>Region</t>
   </si>
@@ -402,6 +402,24 @@
   </si>
   <si>
     <t>Aluminum_Dissolved</t>
+  </si>
+  <si>
+    <t>Watershed</t>
+  </si>
+  <si>
+    <t>Columbia River Watershed</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Smallmouth bass, Goldfish, Pumpkinseed</t>
+  </si>
+  <si>
+    <t>This would run the model for each species in the list for all waterbodies in the chosen watershed THAT HAVE OVERLAPPED WITH SAR (preliminary step); priority ranking is done ACROSS species. Also, have priority columns for MONITORING, DOWNSTREAM EXTENT</t>
+  </si>
+  <si>
+    <t>Fraser River Watershed</t>
   </si>
 </sst>
 </file>
@@ -445,9 +463,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,10 +484,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -786,21 +803,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6445779-2465-4917-922C-4EA6D80CF35A}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="63.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -808,192 +827,226 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>119</v>
       </c>
       <c r="B2" t="s">
         <v>118</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>114</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>79</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>79</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>96</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>105</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>106</v>
       </c>
       <c r="B8" t="s">
         <v>96</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>107</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>115</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>92</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>117</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>112</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>106</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>113</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>79</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>116</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>104</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>111</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1022,11 +1075,11 @@
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1053,47 +1106,47 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -1107,22 +1160,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9ABB0D-65E2-4F7D-8309-D592BA9BA411}">
   <dimension ref="A1:AB67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1208,7 +1261,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1294,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1380,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1466,7 +1519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1552,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1638,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1724,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1810,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1896,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1982,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2068,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2154,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2240,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2326,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2412,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -2498,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2584,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2670,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2756,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -2842,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -2928,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -3014,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -3100,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -3186,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -3272,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -3358,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -3444,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -3530,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -3616,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -3702,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -3788,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -3874,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -3960,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -4046,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -4132,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -4218,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -4304,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -4390,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -4476,7 +4529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -4562,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -4648,7 +4701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -4734,7 +4787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -4820,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -4906,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -4992,7 +5045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -5078,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -5164,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>85</v>
       </c>
@@ -5250,7 +5303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -5336,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -5422,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -5508,7 +5561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -5594,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>90</v>
       </c>
@@ -5680,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -5766,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>92</v>
       </c>
@@ -5852,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>93</v>
       </c>
@@ -5938,7 +5991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -6024,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -6110,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -6196,7 +6249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>97</v>
       </c>
@@ -6282,7 +6335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>98</v>
       </c>
@@ -6368,7 +6421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>99</v>
       </c>
@@ -6454,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>100</v>
       </c>
@@ -6540,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -6626,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>102</v>
       </c>
@@ -6712,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>103</v>
       </c>
@@ -6798,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>104</v>
       </c>

--- a/inputs_for_prioritization_model.xlsx
+++ b/inputs_for_prioritization_model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CMADSEN\Downloads\LocalR\long_term_projects\ais_prioritization_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/john_phelan_gov_bc_ca/Documents/R_projects/ais_prioritization_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB0595F-8A9F-4C2C-8279-FB4D889D6E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{DAB0595F-8A9F-4C2C-8279-FB4D889D6E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F404BC5-6BC1-48BD-9DB4-8975602982C6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="127">
   <si>
     <t>Region</t>
   </si>
@@ -484,6 +484,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -803,23 +807,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6445779-2465-4917-922C-4EA6D80CF35A}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="37.77734375" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="63.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="63.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,7 +840,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>119</v>
       </c>
@@ -850,7 +854,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -864,7 +868,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -878,7 +882,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -892,7 +896,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -906,7 +910,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -920,7 +924,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -934,7 +938,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -948,7 +952,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -962,7 +966,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -976,7 +980,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -990,7 +994,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1004,7 +1008,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1018,7 +1022,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>124</v>
       </c>
@@ -1035,7 +1039,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>124</v>
       </c>
@@ -1047,6 +1051,17 @@
       </c>
       <c r="E16" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1075,11 +1090,11 @@
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1106,47 +1121,47 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -1165,17 +1180,17 @@
       <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1261,7 +1276,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1347,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1433,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1519,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1605,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1691,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1777,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1863,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1949,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2035,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2121,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2207,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2293,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2379,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2465,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -2551,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2637,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2723,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2809,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -2895,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -2981,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -3067,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -3153,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -3239,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -3325,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -3411,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -3497,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -3583,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -3669,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -3755,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -3841,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -3927,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -4013,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -4099,7 +4114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -4185,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -4271,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -4357,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -4443,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -4529,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -4615,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -4701,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -4787,7 +4802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -4873,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -4959,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -5045,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -5131,7 +5146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -5217,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>85</v>
       </c>
@@ -5303,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -5389,7 +5404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -5475,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -5561,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -5647,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>90</v>
       </c>
@@ -5733,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -5819,7 +5834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>92</v>
       </c>
@@ -5905,7 +5920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>93</v>
       </c>
@@ -5991,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -6077,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -6163,7 +6178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -6249,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>97</v>
       </c>
@@ -6335,7 +6350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>98</v>
       </c>
@@ -6421,7 +6436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>99</v>
       </c>
@@ -6507,7 +6522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>100</v>
       </c>
@@ -6593,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -6679,7 +6694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>102</v>
       </c>
@@ -6765,7 +6780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>103</v>
       </c>
@@ -6851,7 +6866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>104</v>
       </c>

--- a/inputs_for_prioritization_model.xlsx
+++ b/inputs_for_prioritization_model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/john_phelan_gov_bc_ca/Documents/R_projects/ais_prioritization_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{DAB0595F-8A9F-4C2C-8279-FB4D889D6E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F404BC5-6BC1-48BD-9DB4-8975602982C6}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{DAB0595F-8A9F-4C2C-8279-FB4D889D6E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60F77DDF-2ED1-4B69-84F9-FDC96FC73109}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="126">
   <si>
     <t>Region</t>
   </si>
@@ -414,9 +414,6 @@
   </si>
   <si>
     <t>Smallmouth bass, Goldfish, Pumpkinseed</t>
-  </si>
-  <si>
-    <t>This would run the model for each species in the list for all waterbodies in the chosen watershed THAT HAVE OVERLAPPED WITH SAR (preliminary step); priority ranking is done ACROSS species. Also, have priority columns for MONITORING, DOWNSTREAM EXTENT</t>
   </si>
   <si>
     <t>Fraser River Watershed</t>
@@ -807,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6445779-2465-4917-922C-4EA6D80CF35A}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,45 +838,46 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>119</v>
-      </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -887,38 +885,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>109</v>
@@ -926,13 +924,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>108</v>
@@ -943,27 +941,27 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -974,35 +972,35 @@
         <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
         <v>109</v>
@@ -1010,58 +1008,44 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
         <v>104</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
         <v>111</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E16" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1074,7 +1058,7 @@
           <x14:formula1>
             <xm:f>acceptable_values!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>A1:A1048576</xm:sqref>
+          <xm:sqref>A1 A2:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/inputs_for_prioritization_model.xlsx
+++ b/inputs_for_prioritization_model.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/john_phelan_gov_bc_ca/Documents/R_projects/ais_prioritization_models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CMADSEN\Downloads\LocalR\long_term_projects\ais_prioritization_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{DAB0595F-8A9F-4C2C-8279-FB4D889D6E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60F77DDF-2ED1-4B69-84F9-FDC96FC73109}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C17CDBE-4020-49D8-8512-0F250B6792C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EB2B9178-B69B-457E-8E21-B51FD6DB9907}"/>
   </bookViews>
   <sheets>
-    <sheet name="inputs" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="CNF_model" sheetId="1" r:id="rId1"/>
+    <sheet name="manual_enter_wb" sheetId="4" r:id="rId2"/>
     <sheet name="acceptable_values" sheetId="2" r:id="rId3"/>
     <sheet name="species_predvars" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="126">
   <si>
     <t>Region</t>
   </si>
@@ -413,10 +413,10 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Smallmouth bass, Goldfish, Pumpkinseed</t>
-  </si>
-  <si>
     <t>Fraser River Watershed</t>
+  </si>
+  <si>
+    <t>Smallmouth bass, Goldfish, Pumpkinseed, Largemouth bass, Yellow perch, Asian clam, Northern pike, Common carp, Brown bullhead</t>
   </si>
 </sst>
 </file>
@@ -481,10 +481,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -804,23 +800,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6445779-2465-4917-922C-4EA6D80CF35A}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="63.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="63.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -837,9 +833,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
         <v>122</v>
@@ -852,200 +848,18 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
         <v>124</v>
-      </c>
-      <c r="C3" t="s">
-        <v>125</v>
       </c>
       <c r="D3" t="s">
         <v>123</v>
       </c>
       <c r="E3" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1058,7 +872,7 @@
           <x14:formula1>
             <xm:f>acceptable_values!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>A1 A2:A1048576</xm:sqref>
+          <xm:sqref>A1:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1068,28 +882,228 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A209DA1-EB94-4B98-91E7-1060469146A8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{82CF97C2-EA65-4800-8639-75B403DC8653}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F5B68123-4BB9-413C-933C-C3EFB5254545}">
           <x14:formula1>
             <xm:f>acceptable_values!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>A4</xm:sqref>
+          <xm:sqref>A1:A14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1105,47 +1119,47 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -1164,17 +1178,17 @@
       <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1260,7 +1274,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1346,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1432,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1518,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1604,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1690,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1776,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1862,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1948,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2034,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2120,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2206,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2292,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2378,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2464,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -2550,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2636,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2722,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2808,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -2894,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -2980,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -3066,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -3152,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -3238,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -3324,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -3410,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -3496,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -3582,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -3668,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -3754,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -3840,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -3926,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -4012,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -4098,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -4184,7 +4198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -4270,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -4356,7 +4370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -4442,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -4528,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -4614,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -4700,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -4786,7 +4800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -4872,7 +4886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -4958,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -5044,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -5130,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -5216,7 +5230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>85</v>
       </c>
@@ -5302,7 +5316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -5388,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -5474,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -5560,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -5646,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>90</v>
       </c>
@@ -5732,7 +5746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -5818,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>92</v>
       </c>
@@ -5904,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>93</v>
       </c>
@@ -5990,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -6076,7 +6090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -6162,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -6248,7 +6262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>97</v>
       </c>
@@ -6334,7 +6348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>98</v>
       </c>
@@ -6420,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>99</v>
       </c>
@@ -6506,7 +6520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>100</v>
       </c>
@@ -6592,7 +6606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -6678,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>102</v>
       </c>
@@ -6764,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>103</v>
       </c>
@@ -6850,7 +6864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>104</v>
       </c>
